--- a/Vortex/Cashflow_2025.xlsx
+++ b/Vortex/Cashflow_2025.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
-  <workbookPr defaultThemeVersion="202300"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://netorgft17940003.sharepoint.com/sites/Vortex/Shared Documents/Finance and Admin/1_Management Reports/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D800AEB5-CA13-4E95-869A-9701AD452B4B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="8" documentId="8_{D800AEB5-CA13-4E95-869A-9701AD452B4B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{08403B5D-C0B5-4556-94DA-1C03E7C28DA9}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{0CEB70E4-11CB-4FD4-AAFF-A2B37F1EF678}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191028"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="131">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="127">
   <si>
     <t>SRL</t>
   </si>
@@ -80,6 +80,15 @@
     <t>122025</t>
   </si>
   <si>
+    <t>12026</t>
+  </si>
+  <si>
+    <t>22026</t>
+  </si>
+  <si>
+    <t>32026</t>
+  </si>
+  <si>
     <t>Pesos</t>
   </si>
   <si>
@@ -92,7 +101,13 @@
     <t>Initial Balance - Banco Galicia</t>
   </si>
   <si>
+    <t>Initial Balance - Banco Santander</t>
+  </si>
+  <si>
     <t>Initial Balance - Caja Vacante</t>
+  </si>
+  <si>
+    <t>Initial Balance - Fondo de Inversión</t>
   </si>
   <si>
     <t>Initial Balance - Caja de Efectivo Admin</t>
@@ -114,6 +129,9 @@
   </si>
   <si>
     <t>A1 LLC</t>
+  </si>
+  <si>
+    <t>DL Cons: Collection Agreement</t>
   </si>
   <si>
     <t>Partner Contribution</t>
@@ -156,6 +174,9 @@
   </si>
   <si>
     <t>Financial Advisor</t>
+  </si>
+  <si>
+    <t>Marketing Services</t>
   </si>
   <si>
     <t>IT Technical Support</t>
@@ -380,7 +401,13 @@
     <t>Final Balance - Banco Galicia</t>
   </si>
   <si>
+    <t>Final Balance - Banco Santander</t>
+  </si>
+  <si>
     <t>Final Balance - Caja Vacante</t>
+  </si>
+  <si>
+    <t>Final Balance - Fondo de Inversión</t>
   </si>
   <si>
     <t>Final Balance - Caja de Efectivo Admin</t>
@@ -390,45 +417,6 @@
   </si>
   <si>
     <t>Monthly Cash Generation</t>
-  </si>
-  <si>
-    <t>12026</t>
-  </si>
-  <si>
-    <t>22026</t>
-  </si>
-  <si>
-    <t>32026</t>
-  </si>
-  <si>
-    <t>Initial Balance - Banco Santander</t>
-  </si>
-  <si>
-    <t>Initial Balance - Fondo de Inversión</t>
-  </si>
-  <si>
-    <t>DL Cons: Collection Agreement</t>
-  </si>
-  <si>
-    <t>Marketing Services</t>
-  </si>
-  <si>
-    <t>Final Balance - Banco Santander</t>
-  </si>
-  <si>
-    <t>Final Balance - Fondo de Inversión</t>
-  </si>
-  <si>
-    <t>Para pegar en A1LLC</t>
-  </si>
-  <si>
-    <t>Saldo más negativo del mes Pesos - POR MES</t>
-  </si>
-  <si>
-    <t>Saldo más negativo del mes Dólares - POR MES</t>
-  </si>
-  <si>
-    <t>Comentarios</t>
   </si>
 </sst>
 </file>
@@ -554,7 +542,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="19">
+  <fills count="16">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -640,24 +628,6 @@
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.79998168889431442"/>
         <bgColor rgb="FF92D050"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.59999389629810485"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.39997558519241921"/>
-        <bgColor rgb="FF92D050"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.79998168889431442"/>
-        <bgColor theme="0"/>
       </patternFill>
     </fill>
   </fills>
@@ -882,7 +852,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="62">
+  <cellXfs count="57">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -995,14 +965,7 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="166" fontId="14" fillId="15" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="3" fontId="0" fillId="16" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="14" fillId="17" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="166" fontId="9" fillId="18" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1337,13 +1300,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FD4A39D2-14F2-4BED-B6F4-1AE9A49B3F4D}">
-  <dimension ref="A1:AZ1005"/>
+  <dimension ref="A1:AZ1000"/>
   <sheetViews>
     <sheetView showGridLines="0" showZeros="0" tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="3" topLeftCell="E4" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="3" topLeftCell="D4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="F12" sqref="F12"/>
+      <selection pane="bottomRight" activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1439,13 +1402,13 @@
         <v>13</v>
       </c>
       <c r="N2" s="9" t="s">
-        <v>118</v>
+        <v>14</v>
       </c>
       <c r="O2" s="9" t="s">
-        <v>119</v>
+        <v>15</v>
       </c>
       <c r="P2" s="9" t="s">
-        <v>120</v>
+        <v>16</v>
       </c>
       <c r="R2" s="6"/>
       <c r="S2" s="10">
@@ -1464,40 +1427,40 @@
         <v>1160</v>
       </c>
       <c r="X2" s="10">
-        <v>1160</v>
+        <v>1180</v>
       </c>
       <c r="Y2" s="10">
-        <v>1160</v>
+        <v>1180</v>
       </c>
       <c r="Z2" s="10">
-        <v>1160</v>
+        <v>1180</v>
       </c>
       <c r="AA2" s="10">
-        <v>1160</v>
+        <v>1180</v>
       </c>
       <c r="AB2" s="10">
-        <v>1160</v>
+        <v>1180</v>
       </c>
       <c r="AC2" s="10">
-        <v>1160</v>
+        <v>1180</v>
       </c>
       <c r="AD2" s="10">
-        <v>1160</v>
+        <v>1180</v>
       </c>
       <c r="AE2" s="10">
-        <v>1160</v>
+        <v>1180</v>
       </c>
       <c r="AF2" s="10">
-        <v>1160</v>
+        <v>1180</v>
       </c>
       <c r="AG2" s="10">
-        <v>1160</v>
+        <v>1180</v>
       </c>
       <c r="AH2" s="6"/>
     </row>
     <row r="3" spans="1:52" s="7" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="11" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="B3" s="12">
         <v>45688</v>
@@ -1546,7 +1509,7 @@
       </c>
       <c r="Q3"/>
       <c r="R3" s="11" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="S3" s="12">
         <v>45688</v>
@@ -1615,7 +1578,7 @@
     </row>
     <row r="4" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A4" s="13" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B4" s="14"/>
       <c r="C4" s="14"/>
@@ -1630,7 +1593,7 @@
     </row>
     <row r="5" spans="1:52" hidden="1" x14ac:dyDescent="0.25">
       <c r="A5" s="16" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="B5" s="17">
         <v>405057.03</v>
@@ -1648,34 +1611,34 @@
         <v>787750.18114686618</v>
       </c>
       <c r="G5" s="17">
-        <v>-9952208.0992113631</v>
+        <v>755758.40518864139</v>
       </c>
       <c r="H5" s="17">
-        <v>-17523361.504712008</v>
+        <v>-6866171.4043873139</v>
       </c>
       <c r="I5" s="17">
-        <v>-16710142.962584712</v>
+        <v>-7104726.5851036888</v>
       </c>
       <c r="J5" s="17">
-        <v>-7180170.0392324105</v>
+        <v>1149386.7940819487</v>
       </c>
       <c r="K5" s="17">
-        <v>-413440.81681511551</v>
+        <v>12017256.462332584</v>
       </c>
       <c r="L5" s="17">
-        <v>7812363.6255603507</v>
+        <v>24709704.214161396</v>
       </c>
       <c r="M5" s="17">
-        <v>11667822.282217994</v>
+        <v>31526211.198807351</v>
       </c>
       <c r="N5" s="17">
-        <v>-12908494.177249864</v>
+        <v>27430212.16917339</v>
       </c>
       <c r="O5" s="17">
-        <v>-22595295.068250656</v>
+        <v>21306957.193937019</v>
       </c>
       <c r="P5" s="17">
-        <v>-30082238.959251449</v>
+        <v>17408630.592828035</v>
       </c>
       <c r="R5" s="6"/>
       <c r="S5" s="18">
@@ -1697,37 +1660,37 @@
         <v>421.49999999999909</v>
       </c>
       <c r="Y5" s="19">
-        <v>-13861.833333333336</v>
+        <v>411.88999999999942</v>
       </c>
       <c r="Z5" s="19">
-        <v>-23945.166666666672</v>
+        <v>-9671.4433333333345</v>
       </c>
       <c r="AA5" s="19">
-        <v>-34028.500000000007</v>
+        <v>-19754.776666666668</v>
       </c>
       <c r="AB5" s="19">
-        <v>-44111.833333333343</v>
+        <v>-29838.11</v>
       </c>
       <c r="AC5" s="19">
-        <v>-54195.166666666679</v>
+        <v>-39921.443333333336</v>
       </c>
       <c r="AD5" s="19">
-        <v>-64278.500000000015</v>
+        <v>-50004.776666666672</v>
       </c>
       <c r="AE5" s="19">
-        <v>-74361.833333333343</v>
+        <v>-60088.110000000008</v>
       </c>
       <c r="AF5" s="19">
-        <v>-84445.166666666672</v>
+        <v>-70171.443333333344</v>
       </c>
       <c r="AG5" s="19">
-        <v>-94528.5</v>
+        <v>-80254.776666666672</v>
       </c>
       <c r="AH5" s="6"/>
     </row>
     <row r="6" spans="1:52" hidden="1" x14ac:dyDescent="0.25">
       <c r="A6" s="20" t="s">
-        <v>121</v>
+        <v>21</v>
       </c>
       <c r="B6" s="21">
         <v>0</v>
@@ -1824,7 +1787,7 @@
     </row>
     <row r="7" spans="1:52" hidden="1" x14ac:dyDescent="0.25">
       <c r="A7" s="20" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="B7" s="21">
         <v>0</v>
@@ -1921,7 +1884,7 @@
     </row>
     <row r="8" spans="1:52" hidden="1" x14ac:dyDescent="0.25">
       <c r="A8" s="20" t="s">
-        <v>122</v>
+        <v>23</v>
       </c>
       <c r="B8" s="21">
         <v>17883471.670000002</v>
@@ -1939,34 +1902,34 @@
         <v>30901881.889999993</v>
       </c>
       <c r="G8" s="21">
-        <v>44439673.469999999</v>
+        <v>20586727.16</v>
       </c>
       <c r="H8" s="21">
-        <v>44439673.469999999</v>
+        <v>13186727.16</v>
       </c>
       <c r="I8" s="21">
-        <v>44439673.469999999</v>
+        <v>13186727.16</v>
       </c>
       <c r="J8" s="21">
-        <v>44439673.469999999</v>
+        <v>13186727.16</v>
       </c>
       <c r="K8" s="21">
-        <v>44439673.469999999</v>
+        <v>13186727.16</v>
       </c>
       <c r="L8" s="21">
-        <v>44439673.469999999</v>
+        <v>13186727.16</v>
       </c>
       <c r="M8" s="21">
-        <v>44439673.469999999</v>
+        <v>13186727.16</v>
       </c>
       <c r="N8" s="21">
-        <v>44439673.469999999</v>
+        <v>13186727.16</v>
       </c>
       <c r="O8" s="21">
-        <v>44439673.469999999</v>
+        <v>13186727.16</v>
       </c>
       <c r="P8" s="21">
-        <v>44439673.469999999</v>
+        <v>13186727.16</v>
       </c>
       <c r="R8" s="6"/>
       <c r="S8" s="18">
@@ -2018,7 +1981,7 @@
     </row>
     <row r="9" spans="1:52" hidden="1" x14ac:dyDescent="0.25">
       <c r="A9" s="20" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="B9" s="21">
         <v>7700</v>
@@ -2115,7 +2078,7 @@
     </row>
     <row r="10" spans="1:52" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="22" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="B10" s="23">
         <v>18296228.700000003</v>
@@ -2133,34 +2096,34 @@
         <v>31697332.071146861</v>
       </c>
       <c r="G10" s="23">
-        <v>34495165.370788634</v>
+        <v>21350185.565188643</v>
       </c>
       <c r="H10" s="23">
-        <v>26924011.965287991</v>
+        <v>6328255.7556126863</v>
       </c>
       <c r="I10" s="23">
-        <v>27737230.507415283</v>
+        <v>6089700.5748963114</v>
       </c>
       <c r="J10" s="23">
-        <v>37267203.430767588</v>
+        <v>14343813.954081953</v>
       </c>
       <c r="K10" s="23">
-        <v>44033932.653184883</v>
+        <v>25211683.622332588</v>
       </c>
       <c r="L10" s="23">
-        <v>52259737.09556035</v>
+        <v>37904131.374161392</v>
       </c>
       <c r="M10" s="23">
-        <v>56115195.752217993</v>
+        <v>44720638.358807348</v>
       </c>
       <c r="N10" s="23">
-        <v>31538879.292750135</v>
+        <v>40624639.329173386</v>
       </c>
       <c r="O10" s="23">
-        <v>21852078.401749343</v>
+        <v>34501384.353937015</v>
       </c>
       <c r="P10" s="23">
-        <v>14365134.51074855</v>
+        <v>30603057.752828032</v>
       </c>
       <c r="R10" s="6"/>
       <c r="S10" s="24">
@@ -2179,40 +2142,40 @@
         <v>27325.286268230051</v>
       </c>
       <c r="X10" s="24">
-        <v>29737.211526541927</v>
+        <v>18093.377597617495</v>
       </c>
       <c r="Y10" s="24">
-        <v>23210.35514248965</v>
+        <v>5362.928606451429</v>
       </c>
       <c r="Z10" s="24">
-        <v>23911.40560984076</v>
+        <v>5160.7631990646714</v>
       </c>
       <c r="AA10" s="24">
-        <v>32126.899509282397</v>
+        <v>12155.774537357585</v>
       </c>
       <c r="AB10" s="24">
-        <v>37960.286769986968</v>
+        <v>21365.833578247955</v>
       </c>
       <c r="AC10" s="24">
-        <v>45051.49749617272</v>
+        <v>32122.145232340168</v>
       </c>
       <c r="AD10" s="24">
-        <v>48375.168751912061</v>
+        <v>37898.846066785889</v>
       </c>
       <c r="AE10" s="24">
-        <v>27188.689045474253</v>
+        <v>34427.660448452029</v>
       </c>
       <c r="AF10" s="24">
-        <v>18837.998622197716</v>
+        <v>29238.461316895773</v>
       </c>
       <c r="AG10" s="24">
-        <v>12383.736647197031</v>
+        <v>25934.794705786466</v>
       </c>
       <c r="AH10" s="6"/>
     </row>
     <row r="11" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A11" s="25" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="B11" s="26">
         <v>9874312.2800000012</v>
@@ -2230,7 +2193,7 @@
         <v>5556564.8399999999</v>
       </c>
       <c r="G11" s="26">
-        <v>5562869.8751999997</v>
+        <v>5554604.6100000003</v>
       </c>
       <c r="H11" s="26">
         <v>5562869.8751999997</v>
@@ -2276,40 +2239,40 @@
         <v>4790.1421034482755</v>
       </c>
       <c r="X11" s="27">
-        <v>4795.5774786206894</v>
+        <v>4707.292042372882</v>
       </c>
       <c r="Y11" s="27">
-        <v>4795.5774786206894</v>
+        <v>4714.2965044067796</v>
       </c>
       <c r="Z11" s="27">
-        <v>4795.5774786206894</v>
+        <v>4714.2965044067796</v>
       </c>
       <c r="AA11" s="27">
-        <v>4795.5774786206894</v>
+        <v>4714.2965044067796</v>
       </c>
       <c r="AB11" s="27">
-        <v>4795.5774786206894</v>
+        <v>4714.2965044067796</v>
       </c>
       <c r="AC11" s="27">
-        <v>4795.5774786206894</v>
+        <v>4714.2965044067796</v>
       </c>
       <c r="AD11" s="27">
-        <v>4795.5774786206894</v>
+        <v>4714.2965044067796</v>
       </c>
       <c r="AE11" s="27">
-        <v>4795.5774786206894</v>
+        <v>4714.2965044067796</v>
       </c>
       <c r="AF11" s="27">
-        <v>4795.5774786206894</v>
+        <v>4714.2965044067796</v>
       </c>
       <c r="AG11" s="27">
-        <v>4795.5774786206894</v>
+        <v>4714.2965044067796</v>
       </c>
       <c r="AH11" s="6"/>
     </row>
     <row r="12" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A12" s="28" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="B12" s="27">
         <v>28134425.719999999</v>
@@ -2320,22 +2283,22 @@
       <c r="D12" s="27">
         <v>29582058.700000003</v>
       </c>
-      <c r="E12" s="61">
+      <c r="E12" s="27">
         <v>18660602.32</v>
       </c>
-      <c r="F12" s="61">
+      <c r="F12" s="27">
         <v>35611382.5581</v>
       </c>
       <c r="G12" s="27">
         <v>36544573.794266999</v>
       </c>
       <c r="H12" s="27">
-        <v>36490986.924777001</v>
+        <v>37431475.428599998</v>
       </c>
       <c r="I12" s="27">
         <v>36787583.052000001</v>
       </c>
-      <c r="J12" s="61">
+      <c r="J12" s="27">
         <v>39549302.951399997</v>
       </c>
       <c r="K12" s="27">
@@ -2373,40 +2336,40 @@
         <v>30699.467722500001</v>
       </c>
       <c r="X12" s="27">
-        <v>31503.942926092241</v>
+        <v>30969.977791751695</v>
       </c>
       <c r="Y12" s="27">
-        <v>31457.74734894569</v>
+        <v>31721.589346271187</v>
       </c>
       <c r="Z12" s="27">
-        <v>31713.433665517241</v>
+        <v>31175.917840677968</v>
       </c>
       <c r="AA12" s="27">
-        <v>34094.226682241373</v>
+        <v>33516.358433389825</v>
       </c>
       <c r="AB12" s="27">
-        <v>34318.128837413788</v>
+        <v>33736.465636779656</v>
       </c>
       <c r="AC12" s="27">
-        <v>34318.128837413788</v>
+        <v>33736.465636779656</v>
       </c>
       <c r="AD12" s="27">
-        <v>37454.224935258622</v>
+        <v>36819.407563474575</v>
       </c>
       <c r="AE12" s="27">
-        <v>37749.944762844832</v>
+        <v>37110.11519059322</v>
       </c>
       <c r="AF12" s="27">
-        <v>37749.944762844832</v>
+        <v>37110.11519059322</v>
       </c>
       <c r="AG12" s="27">
-        <v>37749.944762844832</v>
+        <v>37110.11519059322</v>
       </c>
       <c r="AH12" s="6"/>
     </row>
     <row r="13" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A13" s="28" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="B13" s="27">
         <v>17157792.530000001</v>
@@ -2421,10 +2384,10 @@
         <v>17157792.530000001</v>
       </c>
       <c r="F13" s="27">
-        <v>16996956.345599998</v>
+        <v>0</v>
       </c>
       <c r="G13" s="27">
-        <v>16996956.345599998</v>
+        <v>17157792.530000001</v>
       </c>
       <c r="H13" s="27">
         <v>16996956.345599998</v>
@@ -2442,7 +2405,7 @@
         <v>16996956.345599998</v>
       </c>
       <c r="M13" s="27">
-        <v>0</v>
+        <v>16996956.345599998</v>
       </c>
       <c r="N13" s="27">
         <v>0</v>
@@ -2467,28 +2430,28 @@
         <v>14540.502144067797</v>
       </c>
       <c r="W13" s="27">
-        <v>14652.548573793101</v>
+        <v>0</v>
       </c>
       <c r="X13" s="27">
-        <v>14652.548573793101</v>
+        <v>14540.502144067797</v>
       </c>
       <c r="Y13" s="27">
-        <v>14652.548573793101</v>
+        <v>14404.200292881354</v>
       </c>
       <c r="Z13" s="27">
-        <v>14652.548573793101</v>
+        <v>14404.200292881354</v>
       </c>
       <c r="AA13" s="27">
-        <v>14652.548573793101</v>
+        <v>14404.200292881354</v>
       </c>
       <c r="AB13" s="27">
-        <v>14652.548573793101</v>
+        <v>14404.200292881354</v>
       </c>
       <c r="AC13" s="27">
-        <v>14652.548573793101</v>
+        <v>14404.200292881354</v>
       </c>
       <c r="AD13" s="27">
-        <v>0</v>
+        <v>14404.200292881354</v>
       </c>
       <c r="AE13" s="27">
         <v>0</v>
@@ -2503,7 +2466,7 @@
     </row>
     <row r="14" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A14" s="28" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="B14" s="27">
         <v>0</v>
@@ -2600,7 +2563,7 @@
     </row>
     <row r="15" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A15" s="28" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="B15" s="27">
         <v>0</v>
@@ -2618,7 +2581,7 @@
         <v>3041611.54</v>
       </c>
       <c r="G15" s="27">
-        <v>2611328</v>
+        <v>2545489.35</v>
       </c>
       <c r="H15" s="27">
         <v>2842000</v>
@@ -2664,19 +2627,19 @@
         <v>2622.0789137931033</v>
       </c>
       <c r="X15" s="27">
-        <v>2251.1448275862067</v>
+        <v>2157.1943644067796</v>
       </c>
       <c r="Y15" s="27">
-        <v>2450</v>
+        <v>2408.4745762711864</v>
       </c>
       <c r="Z15" s="27">
-        <v>2446.5517241379312</v>
+        <v>2405.0847457627119</v>
       </c>
       <c r="AA15" s="27">
-        <v>2446.5517241379312</v>
+        <v>2405.0847457627119</v>
       </c>
       <c r="AB15" s="27">
-        <v>2446.5517241379312</v>
+        <v>2405.0847457627119</v>
       </c>
       <c r="AC15" s="27">
         <v>0</v>
@@ -2697,7 +2660,7 @@
     </row>
     <row r="16" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A16" s="28" t="s">
-        <v>123</v>
+        <v>31</v>
       </c>
       <c r="B16" s="27">
         <v>0</v>
@@ -2794,7 +2757,7 @@
     </row>
     <row r="17" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A17" s="28" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="B17" s="27">
         <v>0</v>
@@ -2891,7 +2854,7 @@
     </row>
     <row r="18" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A18" s="28" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="B18" s="27">
         <v>4148000</v>
@@ -2988,7 +2951,7 @@
     </row>
     <row r="19" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A19" s="28" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="B19" s="27">
         <v>0</v>
@@ -3085,7 +3048,7 @@
     </row>
     <row r="20" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A20" s="29" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="B20" s="24">
         <v>59314530.530000001</v>
@@ -3100,13 +3063,13 @@
         <v>43432370.57</v>
       </c>
       <c r="F20" s="24">
-        <v>61206515.283699997</v>
+        <v>44209558.938100003</v>
       </c>
       <c r="G20" s="24">
-        <v>61715728.015066996</v>
+        <v>61802460.284267001</v>
       </c>
       <c r="H20" s="24">
-        <v>61892813.145576999</v>
+        <v>62833301.649399996</v>
       </c>
       <c r="I20" s="24">
         <v>62185409.272799999</v>
@@ -3121,7 +3084,7 @@
         <v>62368855.672199994</v>
       </c>
       <c r="M20" s="24">
-        <v>49009770.800099999</v>
+        <v>66006727.145699993</v>
       </c>
       <c r="N20" s="24">
         <v>49352805.800099999</v>
@@ -3146,43 +3109,43 @@
         <v>36807.09370338983</v>
       </c>
       <c r="W20" s="24">
-        <v>52764.237313534482</v>
+        <v>38111.688739741381</v>
       </c>
       <c r="X20" s="24">
-        <v>53203.213806092237</v>
+        <v>52374.966342599153</v>
       </c>
       <c r="Y20" s="24">
-        <v>53355.87340135948</v>
+        <v>53248.560719830508</v>
       </c>
       <c r="Z20" s="24">
-        <v>53608.111442068963</v>
+        <v>52699.499383728813</v>
       </c>
       <c r="AA20" s="24">
-        <v>55988.904458793098</v>
+        <v>55039.93997644067</v>
       </c>
       <c r="AB20" s="24">
-        <v>56212.806613965513</v>
+        <v>55260.047179830501</v>
       </c>
       <c r="AC20" s="24">
-        <v>53766.254889827578</v>
+        <v>52854.962434067791</v>
       </c>
       <c r="AD20" s="24">
-        <v>42249.802413879312</v>
+        <v>55937.904360762703</v>
       </c>
       <c r="AE20" s="24">
-        <v>42545.522241465515</v>
+        <v>41824.411695000003</v>
       </c>
       <c r="AF20" s="24">
-        <v>42545.522241465515</v>
+        <v>41824.411695000003</v>
       </c>
       <c r="AG20" s="24">
-        <v>42545.522241465515</v>
+        <v>41824.411695000003</v>
       </c>
       <c r="AH20" s="6"/>
     </row>
     <row r="21" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A21" s="28" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="B21" s="27">
         <v>267134.22999999701</v>
@@ -3197,7 +3160,7 @@
         <v>473903.12</v>
       </c>
       <c r="F21" s="27">
-        <v>499988.58000000566</v>
+        <v>607042.27000000561</v>
       </c>
       <c r="G21" s="27">
         <v>0</v>
@@ -3243,7 +3206,7 @@
         <v>401.61281355932203</v>
       </c>
       <c r="W21" s="27">
-        <v>431.02463793103936</v>
+        <v>523.3123017241428</v>
       </c>
       <c r="X21" s="27">
         <v>0</v>
@@ -3279,7 +3242,7 @@
     </row>
     <row r="22" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A22" s="28" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="B22" s="27">
         <v>86907</v>
@@ -3376,7 +3339,7 @@
     </row>
     <row r="23" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A23" s="29" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="B23" s="24">
         <v>354041.22999999701</v>
@@ -3391,7 +3354,7 @@
         <v>553941.12</v>
       </c>
       <c r="F23" s="24">
-        <v>724494.59000000567</v>
+        <v>831548.28000000562</v>
       </c>
       <c r="G23" s="24">
         <v>0</v>
@@ -3437,7 +3400,7 @@
         <v>469.44162711864408</v>
       </c>
       <c r="W23" s="24">
-        <v>624.56430172414287</v>
+        <v>716.85196551724619</v>
       </c>
       <c r="X23" s="24">
         <v>0</v>
@@ -3473,7 +3436,7 @@
     </row>
     <row r="24" spans="1:34" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="30" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="B24" s="31">
         <v>59668571.759999998</v>
@@ -3488,13 +3451,13 @@
         <v>43986311.689999998</v>
       </c>
       <c r="F24" s="31">
-        <v>61931009.8737</v>
+        <v>45041107.218100011</v>
       </c>
       <c r="G24" s="31">
-        <v>61715728.015066996</v>
+        <v>61802460.284267001</v>
       </c>
       <c r="H24" s="31">
-        <v>61892813.145576999</v>
+        <v>62833301.649399996</v>
       </c>
       <c r="I24" s="31">
         <v>62185409.272799999</v>
@@ -3509,7 +3472,7 @@
         <v>62368855.672199994</v>
       </c>
       <c r="M24" s="31">
-        <v>49009770.800099999</v>
+        <v>66006727.145699993</v>
       </c>
       <c r="N24" s="31">
         <v>49352805.800099999</v>
@@ -3534,43 +3497,43 @@
         <v>37276.535330508472</v>
       </c>
       <c r="W24" s="31">
-        <v>53388.801615258621</v>
+        <v>38828.540705258631</v>
       </c>
       <c r="X24" s="31">
-        <v>53203.213806092237</v>
+        <v>52374.966342599153</v>
       </c>
       <c r="Y24" s="31">
-        <v>53355.87340135948</v>
+        <v>53248.560719830508</v>
       </c>
       <c r="Z24" s="31">
-        <v>53608.111442068963</v>
+        <v>52699.499383728813</v>
       </c>
       <c r="AA24" s="31">
-        <v>55988.904458793098</v>
+        <v>55039.93997644067</v>
       </c>
       <c r="AB24" s="31">
-        <v>56212.806613965513</v>
+        <v>55260.047179830501</v>
       </c>
       <c r="AC24" s="31">
-        <v>53766.254889827578</v>
+        <v>52854.962434067791</v>
       </c>
       <c r="AD24" s="31">
-        <v>42249.802413879312</v>
+        <v>55937.904360762703</v>
       </c>
       <c r="AE24" s="31">
-        <v>42545.522241465515</v>
+        <v>41824.411695000003</v>
       </c>
       <c r="AF24" s="31">
-        <v>42545.522241465515</v>
+        <v>41824.411695000003</v>
       </c>
       <c r="AG24" s="31">
-        <v>42545.522241465515</v>
+        <v>41824.411695000003</v>
       </c>
       <c r="AH24" s="6"/>
     </row>
     <row r="25" spans="1:34" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="28" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="B25" s="27">
         <v>-1642265.94</v>
@@ -3588,7 +3551,7 @@
         <v>-2146335.42</v>
       </c>
       <c r="G25" s="27">
-        <v>-2360000</v>
+        <v>-2320497.2000000002</v>
       </c>
       <c r="H25" s="27">
         <v>-2360000</v>
@@ -3634,16 +3597,16 @@
         <v>-1850.2891551724138</v>
       </c>
       <c r="X25" s="27">
-        <v>-2034.4827586206898</v>
+        <v>-1966.5230508474579</v>
       </c>
       <c r="Y25" s="27">
-        <v>-2034.4827586206898</v>
+        <v>-2000</v>
       </c>
       <c r="Z25" s="27">
-        <v>-2034.4827586206898</v>
+        <v>-2000</v>
       </c>
       <c r="AA25" s="27">
-        <v>-2034.4827586206898</v>
+        <v>-2000</v>
       </c>
       <c r="AB25" s="27">
         <v>0</v>
@@ -3667,7 +3630,7 @@
     </row>
     <row r="26" spans="1:34" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="28" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="B26" s="27">
         <v>0</v>
@@ -3764,7 +3727,7 @@
     </row>
     <row r="27" spans="1:34" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="32" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="B27" s="33">
         <v>-1642265.94</v>
@@ -3782,7 +3745,7 @@
         <v>-2146335.42</v>
       </c>
       <c r="G27" s="33">
-        <v>-2360000</v>
+        <v>-2320497.2000000002</v>
       </c>
       <c r="H27" s="33">
         <v>-2360000</v>
@@ -3828,16 +3791,16 @@
         <v>-1850.2891551724138</v>
       </c>
       <c r="X27" s="33">
-        <v>-2034.4827586206898</v>
+        <v>-1966.5230508474579</v>
       </c>
       <c r="Y27" s="33">
-        <v>-2034.4827586206898</v>
+        <v>-2000</v>
       </c>
       <c r="Z27" s="33">
-        <v>-2034.4827586206898</v>
+        <v>-2000</v>
       </c>
       <c r="AA27" s="33">
-        <v>-2034.4827586206898</v>
+        <v>-2000</v>
       </c>
       <c r="AB27" s="33">
         <v>0</v>
@@ -3861,7 +3824,7 @@
     </row>
     <row r="28" spans="1:34" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="34" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="B28" s="27">
         <v>-770570</v>
@@ -3879,7 +3842,7 @@
         <v>-822461</v>
       </c>
       <c r="G28" s="27">
-        <v>-918329.5</v>
+        <v>-822462</v>
       </c>
       <c r="H28" s="27">
         <v>-918329.5</v>
@@ -3925,40 +3888,40 @@
         <v>-709.01810344827584</v>
       </c>
       <c r="X28" s="27">
-        <v>-791.66336206896551</v>
+        <v>-697.00169491525423</v>
       </c>
       <c r="Y28" s="27">
-        <v>-791.66336206896551</v>
+        <v>-778.24533898305083</v>
       </c>
       <c r="Z28" s="27">
-        <v>-791.66336206896551</v>
+        <v>-778.24533898305083</v>
       </c>
       <c r="AA28" s="27">
-        <v>-791.66336206896551</v>
+        <v>-778.24533898305083</v>
       </c>
       <c r="AB28" s="27">
-        <v>-791.66336206896551</v>
+        <v>-778.24533898305083</v>
       </c>
       <c r="AC28" s="27">
-        <v>-791.66336206896551</v>
+        <v>-778.24533898305083</v>
       </c>
       <c r="AD28" s="27">
-        <v>-791.66336206896551</v>
+        <v>-778.24533898305083</v>
       </c>
       <c r="AE28" s="27">
-        <v>-791.66336206896551</v>
+        <v>-778.24533898305083</v>
       </c>
       <c r="AF28" s="27">
-        <v>-791.66336206896551</v>
+        <v>-778.24533898305083</v>
       </c>
       <c r="AG28" s="27">
-        <v>-791.66336206896551</v>
+        <v>-778.24533898305083</v>
       </c>
       <c r="AH28" s="6"/>
     </row>
     <row r="29" spans="1:34" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="34" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="B29" s="27">
         <v>-60838.42</v>
@@ -3976,7 +3939,7 @@
         <v>-60838.42</v>
       </c>
       <c r="G29" s="27">
-        <v>-65000</v>
+        <v>-60838.42</v>
       </c>
       <c r="H29" s="27">
         <v>-65000</v>
@@ -4022,40 +3985,40 @@
         <v>-52.446913793103448</v>
       </c>
       <c r="X29" s="27">
-        <v>-56.03448275862069</v>
+        <v>-51.557983050847454</v>
       </c>
       <c r="Y29" s="27">
-        <v>-56.03448275862069</v>
+        <v>-55.084745762711862</v>
       </c>
       <c r="Z29" s="27">
-        <v>-56.03448275862069</v>
+        <v>-55.084745762711862</v>
       </c>
       <c r="AA29" s="27">
-        <v>-56.03448275862069</v>
+        <v>-55.084745762711862</v>
       </c>
       <c r="AB29" s="27">
-        <v>-56.03448275862069</v>
+        <v>-55.084745762711862</v>
       </c>
       <c r="AC29" s="27">
-        <v>-56.03448275862069</v>
+        <v>-55.084745762711862</v>
       </c>
       <c r="AD29" s="27">
-        <v>-56.03448275862069</v>
+        <v>-55.084745762711862</v>
       </c>
       <c r="AE29" s="27">
-        <v>-56.03448275862069</v>
+        <v>-55.084745762711862</v>
       </c>
       <c r="AF29" s="27">
-        <v>-56.03448275862069</v>
+        <v>-55.084745762711862</v>
       </c>
       <c r="AG29" s="27">
-        <v>-56.03448275862069</v>
+        <v>-55.084745762711862</v>
       </c>
       <c r="AH29" s="6"/>
     </row>
     <row r="30" spans="1:34" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="34" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="B30" s="27">
         <v>-25000</v>
@@ -4119,40 +4082,40 @@
         <v>-30.172413793103448</v>
       </c>
       <c r="X30" s="27">
-        <v>-30.172413793103448</v>
+        <v>-29.661016949152543</v>
       </c>
       <c r="Y30" s="27">
-        <v>-30.172413793103448</v>
+        <v>-29.661016949152543</v>
       </c>
       <c r="Z30" s="27">
-        <v>-30.172413793103448</v>
+        <v>-29.661016949152543</v>
       </c>
       <c r="AA30" s="27">
-        <v>-30.172413793103448</v>
+        <v>-29.661016949152543</v>
       </c>
       <c r="AB30" s="27">
-        <v>-30.172413793103448</v>
+        <v>-29.661016949152543</v>
       </c>
       <c r="AC30" s="27">
-        <v>-30.172413793103448</v>
+        <v>-29.661016949152543</v>
       </c>
       <c r="AD30" s="27">
-        <v>-30.172413793103448</v>
+        <v>-29.661016949152543</v>
       </c>
       <c r="AE30" s="27">
-        <v>-30.172413793103448</v>
+        <v>-29.661016949152543</v>
       </c>
       <c r="AF30" s="27">
-        <v>-30.172413793103448</v>
+        <v>-29.661016949152543</v>
       </c>
       <c r="AG30" s="27">
-        <v>-30.172413793103448</v>
+        <v>-29.661016949152543</v>
       </c>
       <c r="AH30" s="6"/>
     </row>
     <row r="31" spans="1:34" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="34" t="s">
-        <v>124</v>
+        <v>46</v>
       </c>
       <c r="B31" s="27">
         <v>-422500.43</v>
@@ -4163,41 +4126,41 @@
       <c r="D31" s="27">
         <v>-650434.32000000007</v>
       </c>
-      <c r="E31" s="61">
-        <v>0</v>
-      </c>
-      <c r="F31" s="61">
-        <v>-4100563.3699999996</v>
-      </c>
-      <c r="G31" s="61">
-        <v>-723120.8</v>
+      <c r="E31" s="27">
+        <v>0</v>
+      </c>
+      <c r="F31" s="27">
+        <v>-709442.57</v>
+      </c>
+      <c r="G31" s="27">
+        <v>-4185176.8</v>
       </c>
       <c r="H31" s="27">
-        <v>-723120.8</v>
+        <v>-1535588.4</v>
       </c>
       <c r="I31" s="27">
-        <v>-723120.8</v>
+        <v>-1535588.4</v>
       </c>
       <c r="J31" s="27">
-        <v>-723120.8</v>
+        <v>-1535588.4</v>
       </c>
       <c r="K31" s="27">
-        <v>-723120.8</v>
+        <v>-735588.4</v>
       </c>
       <c r="L31" s="27">
-        <v>-723120.8</v>
+        <v>-735588.4</v>
       </c>
       <c r="M31" s="27">
-        <v>-723120.8</v>
+        <v>-735588.4</v>
       </c>
       <c r="N31" s="27">
-        <v>-723120.8</v>
+        <v>-735588.4</v>
       </c>
       <c r="O31" s="27">
-        <v>-723120.8</v>
+        <v>-735588.4</v>
       </c>
       <c r="P31" s="27">
-        <v>-723120.8</v>
+        <v>-735588.4</v>
       </c>
       <c r="R31" s="6"/>
       <c r="S31" s="27">
@@ -4213,19 +4176,19 @@
         <v>0</v>
       </c>
       <c r="W31" s="27">
-        <v>-3534.9684224137927</v>
+        <v>-611.58842241379307</v>
       </c>
       <c r="X31" s="27">
-        <v>-623.38</v>
+        <v>-3546.7599999999998</v>
       </c>
       <c r="Y31" s="27">
-        <v>-623.38</v>
+        <v>-1301.3461016949152</v>
       </c>
       <c r="Z31" s="27">
-        <v>-623.38</v>
+        <v>-1301.3461016949152</v>
       </c>
       <c r="AA31" s="27">
-        <v>-623.38</v>
+        <v>-1301.3461016949152</v>
       </c>
       <c r="AB31" s="27">
         <v>-623.38</v>
@@ -4249,7 +4212,7 @@
     </row>
     <row r="32" spans="1:34" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="34" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="B32" s="27">
         <v>0</v>
@@ -4346,7 +4309,7 @@
     </row>
     <row r="33" spans="1:34" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="34" t="s">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="B33" s="27">
         <v>0</v>
@@ -4364,7 +4327,7 @@
         <v>-812000</v>
       </c>
       <c r="G33" s="27">
-        <v>-812000</v>
+        <v>-826000</v>
       </c>
       <c r="H33" s="27">
         <v>0</v>
@@ -4419,7 +4382,7 @@
         <v>0</v>
       </c>
       <c r="AA33" s="27">
-        <v>-86.206896551724142</v>
+        <v>-84.745762711864401</v>
       </c>
       <c r="AB33" s="27">
         <v>0</v>
@@ -4443,7 +4406,7 @@
     </row>
     <row r="34" spans="1:34" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="34" t="s">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="B34" s="27">
         <v>0</v>
@@ -4540,7 +4503,7 @@
     </row>
     <row r="35" spans="1:34" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="34" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="B35" s="27">
         <v>0</v>
@@ -4637,7 +4600,7 @@
     </row>
     <row r="36" spans="1:34" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="34" t="s">
-        <v>44</v>
+        <v>51</v>
       </c>
       <c r="B36" s="27">
         <v>0</v>
@@ -4734,7 +4697,7 @@
     </row>
     <row r="37" spans="1:34" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="32" t="s">
-        <v>45</v>
+        <v>52</v>
       </c>
       <c r="B37" s="33">
         <v>-1278908.8500000001</v>
@@ -4749,37 +4712,37 @@
         <v>-2344150.52</v>
       </c>
       <c r="F37" s="33">
-        <v>-5830862.79</v>
+        <v>-2439741.9900000002</v>
       </c>
       <c r="G37" s="33">
-        <v>-2553450.2999999998</v>
+        <v>-5929477.2199999997</v>
       </c>
       <c r="H37" s="33">
-        <v>-1741450.3</v>
+        <v>-2553917.9</v>
       </c>
       <c r="I37" s="33">
-        <v>-1741450.3</v>
+        <v>-2553917.9</v>
       </c>
       <c r="J37" s="33">
-        <v>-1841450.3</v>
+        <v>-2653917.9</v>
       </c>
       <c r="K37" s="33">
-        <v>-1741450.3</v>
+        <v>-1753917.9</v>
       </c>
       <c r="L37" s="33">
-        <v>-1741450.3</v>
+        <v>-1753917.9</v>
       </c>
       <c r="M37" s="33">
-        <v>-1741450.3</v>
+        <v>-1753917.9</v>
       </c>
       <c r="N37" s="33">
-        <v>-1741450.3</v>
+        <v>-1753917.9</v>
       </c>
       <c r="O37" s="33">
-        <v>-1741450.3</v>
+        <v>-1753917.9</v>
       </c>
       <c r="P37" s="33">
-        <v>-1741450.3</v>
+        <v>-1753917.9</v>
       </c>
       <c r="R37" s="6"/>
       <c r="S37" s="33">
@@ -4795,43 +4758,43 @@
         <v>-1986.5682372881356</v>
       </c>
       <c r="W37" s="33">
-        <v>-5026.6058534482763</v>
+        <v>-2103.2258534482758</v>
       </c>
       <c r="X37" s="33">
-        <v>-2201.2502586206897</v>
+        <v>-5024.9806949152544</v>
       </c>
       <c r="Y37" s="33">
-        <v>-1501.2502586206897</v>
+        <v>-2164.3372033898304</v>
       </c>
       <c r="Z37" s="33">
-        <v>-1501.2502586206897</v>
+        <v>-2164.3372033898304</v>
       </c>
       <c r="AA37" s="33">
-        <v>-1587.4571551724139</v>
+        <v>-2249.0829661016946</v>
       </c>
       <c r="AB37" s="33">
-        <v>-1501.2502586206897</v>
+        <v>-1486.3711016949151</v>
       </c>
       <c r="AC37" s="33">
-        <v>-1501.2502586206897</v>
+        <v>-1486.3711016949151</v>
       </c>
       <c r="AD37" s="33">
-        <v>-1501.2502586206897</v>
+        <v>-1486.3711016949151</v>
       </c>
       <c r="AE37" s="33">
-        <v>-1501.2502586206897</v>
+        <v>-1486.3711016949151</v>
       </c>
       <c r="AF37" s="33">
-        <v>-1501.2502586206897</v>
+        <v>-1486.3711016949151</v>
       </c>
       <c r="AG37" s="33">
-        <v>-1501.2502586206897</v>
+        <v>-1486.3711016949151</v>
       </c>
       <c r="AH37" s="6"/>
     </row>
     <row r="38" spans="1:34" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="28" t="s">
-        <v>46</v>
+        <v>53</v>
       </c>
       <c r="B38" s="27">
         <v>-154865.48000000001</v>
@@ -4895,16 +4858,16 @@
         <v>-139.4032327586207</v>
       </c>
       <c r="X38" s="27">
-        <v>-142.73050000000001</v>
+        <v>-140.31133898305086</v>
       </c>
       <c r="Y38" s="27">
-        <v>-137.93103448275863</v>
+        <v>-135.59322033898306</v>
       </c>
       <c r="Z38" s="27">
-        <v>-137.93103448275863</v>
+        <v>-135.59322033898306</v>
       </c>
       <c r="AA38" s="27">
-        <v>-137.93103448275863</v>
+        <v>-135.59322033898306</v>
       </c>
       <c r="AB38" s="27">
         <v>0</v>
@@ -4928,7 +4891,7 @@
     </row>
     <row r="39" spans="1:34" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="28" t="s">
-        <v>47</v>
+        <v>54</v>
       </c>
       <c r="B39" s="27">
         <v>-53338.19</v>
@@ -4992,40 +4955,40 @@
         <v>-218.50966379310341</v>
       </c>
       <c r="X39" s="27">
-        <v>-14.935405172413793</v>
+        <v>-14.682262711864407</v>
       </c>
       <c r="Y39" s="27">
-        <v>-17.241379310344829</v>
+        <v>-16.949152542372882</v>
       </c>
       <c r="Z39" s="27">
-        <v>-17.241379310344829</v>
+        <v>-16.949152542372882</v>
       </c>
       <c r="AA39" s="27">
-        <v>-17.241379310344829</v>
+        <v>-16.949152542372882</v>
       </c>
       <c r="AB39" s="27">
-        <v>-17.241379310344829</v>
+        <v>-16.949152542372882</v>
       </c>
       <c r="AC39" s="27">
-        <v>-17.241379310344829</v>
+        <v>-16.949152542372882</v>
       </c>
       <c r="AD39" s="27">
-        <v>-17.241379310344829</v>
+        <v>-16.949152542372882</v>
       </c>
       <c r="AE39" s="27">
-        <v>-17.241379310344829</v>
+        <v>-16.949152542372882</v>
       </c>
       <c r="AF39" s="27">
-        <v>-17.241379310344829</v>
+        <v>-16.949152542372882</v>
       </c>
       <c r="AG39" s="27">
-        <v>-17.241379310344829</v>
+        <v>-16.949152542372882</v>
       </c>
       <c r="AH39" s="6"/>
     </row>
     <row r="40" spans="1:34" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="32" t="s">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="B40" s="33">
         <v>-208203.67</v>
@@ -5089,40 +5052,40 @@
         <v>-357.91289655172409</v>
       </c>
       <c r="X40" s="33">
-        <v>-157.6659051724138</v>
+        <v>-154.99360169491527</v>
       </c>
       <c r="Y40" s="33">
-        <v>-155.17241379310346</v>
+        <v>-152.54237288135593</v>
       </c>
       <c r="Z40" s="33">
-        <v>-155.17241379310346</v>
+        <v>-152.54237288135593</v>
       </c>
       <c r="AA40" s="33">
-        <v>-155.17241379310346</v>
+        <v>-152.54237288135593</v>
       </c>
       <c r="AB40" s="33">
-        <v>-17.241379310344829</v>
+        <v>-16.949152542372882</v>
       </c>
       <c r="AC40" s="33">
-        <v>-17.241379310344829</v>
+        <v>-16.949152542372882</v>
       </c>
       <c r="AD40" s="33">
-        <v>-17.241379310344829</v>
+        <v>-16.949152542372882</v>
       </c>
       <c r="AE40" s="33">
-        <v>-17.241379310344829</v>
+        <v>-16.949152542372882</v>
       </c>
       <c r="AF40" s="33">
-        <v>-17.241379310344829</v>
+        <v>-16.949152542372882</v>
       </c>
       <c r="AG40" s="33">
-        <v>-17.241379310344829</v>
+        <v>-16.949152542372882</v>
       </c>
       <c r="AH40" s="6"/>
     </row>
     <row r="41" spans="1:34" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="28" t="s">
-        <v>49</v>
+        <v>56</v>
       </c>
       <c r="B41" s="27">
         <v>0</v>
@@ -5219,7 +5182,7 @@
     </row>
     <row r="42" spans="1:34" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="28" t="s">
-        <v>50</v>
+        <v>57</v>
       </c>
       <c r="B42" s="27">
         <v>-119029.59</v>
@@ -5283,7 +5246,7 @@
         <v>0</v>
       </c>
       <c r="X42" s="27">
-        <v>-44.646551724137929</v>
+        <v>-43.889830508474574</v>
       </c>
       <c r="Y42" s="27">
         <v>0</v>
@@ -5316,7 +5279,7 @@
     </row>
     <row r="43" spans="1:34" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="28" t="s">
-        <v>51</v>
+        <v>58</v>
       </c>
       <c r="B43" s="27">
         <v>-317047.59999999998</v>
@@ -5334,34 +5297,34 @@
         <v>-833620.96999999986</v>
       </c>
       <c r="G43" s="27">
-        <v>-756116</v>
+        <v>-751707.0149999999</v>
       </c>
       <c r="H43" s="27">
-        <v>-766024</v>
+        <v>-862152</v>
       </c>
       <c r="I43" s="27">
-        <v>-766024</v>
+        <v>-869424</v>
       </c>
       <c r="J43" s="27">
-        <v>-766024</v>
+        <v>-869424</v>
       </c>
       <c r="K43" s="27">
-        <v>-766024</v>
+        <v>-869424</v>
       </c>
       <c r="L43" s="27">
-        <v>-766024</v>
+        <v>-869424</v>
       </c>
       <c r="M43" s="27">
-        <v>-766024</v>
+        <v>-869424</v>
       </c>
       <c r="N43" s="27">
-        <v>-766024</v>
+        <v>-869424</v>
       </c>
       <c r="O43" s="27">
-        <v>-766024</v>
+        <v>-869424</v>
       </c>
       <c r="P43" s="27">
-        <v>-766024</v>
+        <v>-869424</v>
       </c>
       <c r="R43" s="6"/>
       <c r="S43" s="27">
@@ -5380,40 +5343,40 @@
         <v>-718.63876724137924</v>
       </c>
       <c r="X43" s="27">
-        <v>-651.82413793103444</v>
+        <v>-637.03984322033887</v>
       </c>
       <c r="Y43" s="27">
-        <v>-660.36551724137928</v>
+        <v>-730.63728813559317</v>
       </c>
       <c r="Z43" s="27">
-        <v>-660.36551724137928</v>
+        <v>-736.8</v>
       </c>
       <c r="AA43" s="27">
-        <v>-660.36551724137928</v>
+        <v>-736.8</v>
       </c>
       <c r="AB43" s="27">
-        <v>-660.36551724137928</v>
+        <v>-736.8</v>
       </c>
       <c r="AC43" s="27">
-        <v>-660.36551724137928</v>
+        <v>-736.8</v>
       </c>
       <c r="AD43" s="27">
-        <v>-660.36551724137928</v>
+        <v>-736.8</v>
       </c>
       <c r="AE43" s="27">
-        <v>-660.36551724137928</v>
+        <v>-736.8</v>
       </c>
       <c r="AF43" s="27">
-        <v>-660.36551724137928</v>
+        <v>-736.8</v>
       </c>
       <c r="AG43" s="27">
-        <v>-660.36551724137928</v>
+        <v>-736.8</v>
       </c>
       <c r="AH43" s="6"/>
     </row>
     <row r="44" spans="1:34" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="28" t="s">
-        <v>52</v>
+        <v>59</v>
       </c>
       <c r="B44" s="27">
         <v>0</v>
@@ -5510,7 +5473,7 @@
     </row>
     <row r="45" spans="1:34" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="28" t="s">
-        <v>53</v>
+        <v>60</v>
       </c>
       <c r="B45" s="27">
         <v>-157510.76</v>
@@ -5528,7 +5491,7 @@
         <v>-187136.88000000003</v>
       </c>
       <c r="G45" s="27">
-        <v>-190000</v>
+        <v>-187136.88000000003</v>
       </c>
       <c r="H45" s="27">
         <v>-190000</v>
@@ -5574,40 +5537,40 @@
         <v>-161.32489655172418</v>
       </c>
       <c r="X45" s="27">
-        <v>-163.79310344827587</v>
+        <v>-158.59057627118648</v>
       </c>
       <c r="Y45" s="27">
-        <v>-163.79310344827587</v>
+        <v>-161.01694915254237</v>
       </c>
       <c r="Z45" s="27">
-        <v>-163.79310344827587</v>
+        <v>-161.01694915254237</v>
       </c>
       <c r="AA45" s="27">
-        <v>-163.79310344827587</v>
+        <v>-161.01694915254237</v>
       </c>
       <c r="AB45" s="27">
-        <v>-163.79310344827587</v>
+        <v>-161.01694915254237</v>
       </c>
       <c r="AC45" s="27">
-        <v>-163.79310344827587</v>
+        <v>-161.01694915254237</v>
       </c>
       <c r="AD45" s="27">
-        <v>-163.79310344827587</v>
+        <v>-161.01694915254237</v>
       </c>
       <c r="AE45" s="27">
-        <v>-163.79310344827587</v>
+        <v>-161.01694915254237</v>
       </c>
       <c r="AF45" s="27">
-        <v>-163.79310344827587</v>
+        <v>-161.01694915254237</v>
       </c>
       <c r="AG45" s="27">
-        <v>-163.79310344827587</v>
+        <v>-161.01694915254237</v>
       </c>
       <c r="AH45" s="6"/>
     </row>
     <row r="46" spans="1:34" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="28" t="s">
-        <v>54</v>
+        <v>61</v>
       </c>
       <c r="B46" s="27">
         <v>-489221.30000000005</v>
@@ -5625,7 +5588,7 @@
         <v>-266987.5</v>
       </c>
       <c r="G46" s="27">
-        <v>-280917.28000000003</v>
+        <v>-266987.5</v>
       </c>
       <c r="H46" s="27">
         <v>-281000</v>
@@ -5671,16 +5634,16 @@
         <v>-230.16163793103448</v>
       </c>
       <c r="X46" s="27">
-        <v>-242.17006896551726</v>
+        <v>-226.26059322033899</v>
       </c>
       <c r="Y46" s="27">
-        <v>-242.24137931034483</v>
+        <v>-238.13559322033899</v>
       </c>
       <c r="Z46" s="27">
-        <v>-242.24137931034483</v>
+        <v>-238.13559322033899</v>
       </c>
       <c r="AA46" s="27">
-        <v>-242.24137931034483</v>
+        <v>-238.13559322033899</v>
       </c>
       <c r="AB46" s="27">
         <v>0</v>
@@ -5704,7 +5667,7 @@
     </row>
     <row r="47" spans="1:34" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="28" t="s">
-        <v>55</v>
+        <v>62</v>
       </c>
       <c r="B47" s="27">
         <v>-474360</v>
@@ -5722,7 +5685,7 @@
         <v>-645186.59000000008</v>
       </c>
       <c r="G47" s="27">
-        <v>-206166.66</v>
+        <v>-277916.66000000003</v>
       </c>
       <c r="H47" s="27">
         <v>0</v>
@@ -5768,7 +5731,7 @@
         <v>-556.19533620689663</v>
       </c>
       <c r="X47" s="27">
-        <v>-177.72987931034484</v>
+        <v>-235.52259322033902</v>
       </c>
       <c r="Y47" s="27">
         <v>0</v>
@@ -5801,7 +5764,7 @@
     </row>
     <row r="48" spans="1:34" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="28" t="s">
-        <v>56</v>
+        <v>63</v>
       </c>
       <c r="B48" s="27">
         <v>-356764.93</v>
@@ -5822,7 +5785,7 @@
         <v>-36297.64</v>
       </c>
       <c r="H48" s="27">
-        <v>-37000</v>
+        <v>-36297.64</v>
       </c>
       <c r="I48" s="27">
         <v>-37000</v>
@@ -5865,16 +5828,16 @@
         <v>-31.29106896551724</v>
       </c>
       <c r="X48" s="27">
-        <v>-31.29106896551724</v>
+        <v>-30.76071186440678</v>
       </c>
       <c r="Y48" s="27">
-        <v>-31.896551724137932</v>
+        <v>-30.76071186440678</v>
       </c>
       <c r="Z48" s="27">
-        <v>-31.896551724137932</v>
+        <v>-31.35593220338983</v>
       </c>
       <c r="AA48" s="27">
-        <v>-31.896551724137932</v>
+        <v>-31.35593220338983</v>
       </c>
       <c r="AB48" s="27">
         <v>0</v>
@@ -5898,7 +5861,7 @@
     </row>
     <row r="49" spans="1:34" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="28" t="s">
-        <v>57</v>
+        <v>64</v>
       </c>
       <c r="B49" s="27">
         <v>-169628.38</v>
@@ -5916,10 +5879,10 @@
         <v>-277096.98</v>
       </c>
       <c r="G49" s="27">
-        <v>-577401.27</v>
+        <v>-684618.625</v>
       </c>
       <c r="H49" s="27">
-        <v>0</v>
+        <v>-104409.95</v>
       </c>
       <c r="I49" s="27">
         <v>0</v>
@@ -5962,10 +5925,10 @@
         <v>-238.8767068965517</v>
       </c>
       <c r="X49" s="27">
-        <v>-497.75971551724137</v>
+        <v>-580.18527542372885</v>
       </c>
       <c r="Y49" s="27">
-        <v>0</v>
+        <v>-88.483008474576266</v>
       </c>
       <c r="Z49" s="27">
         <v>0</v>
@@ -5995,7 +5958,7 @@
     </row>
     <row r="50" spans="1:34" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="28" t="s">
-        <v>58</v>
+        <v>65</v>
       </c>
       <c r="B50" s="27">
         <v>-2259850</v>
@@ -6013,13 +5976,13 @@
         <v>-12291.13</v>
       </c>
       <c r="G50" s="27">
-        <v>-100000</v>
+        <v>-307000</v>
       </c>
       <c r="H50" s="27">
-        <v>-100000</v>
+        <v>-307000</v>
       </c>
       <c r="I50" s="27">
-        <v>-100000</v>
+        <v>-307000</v>
       </c>
       <c r="J50" s="27">
         <v>-100000</v>
@@ -6059,40 +6022,40 @@
         <v>-10.59580172413793</v>
       </c>
       <c r="X50" s="27">
-        <v>-86.206896551724142</v>
+        <v>-260.16949152542372</v>
       </c>
       <c r="Y50" s="27">
-        <v>-86.206896551724142</v>
+        <v>-260.16949152542372</v>
       </c>
       <c r="Z50" s="27">
-        <v>-86.206896551724142</v>
+        <v>-260.16949152542372</v>
       </c>
       <c r="AA50" s="27">
-        <v>-86.206896551724142</v>
+        <v>-84.745762711864401</v>
       </c>
       <c r="AB50" s="27">
-        <v>-86.206896551724142</v>
+        <v>-84.745762711864401</v>
       </c>
       <c r="AC50" s="27">
-        <v>-86.206896551724142</v>
+        <v>-84.745762711864401</v>
       </c>
       <c r="AD50" s="27">
-        <v>-86.206896551724142</v>
+        <v>-84.745762711864401</v>
       </c>
       <c r="AE50" s="27">
-        <v>-86.206896551724142</v>
+        <v>-84.745762711864401</v>
       </c>
       <c r="AF50" s="27">
-        <v>-86.206896551724142</v>
+        <v>-84.745762711864401</v>
       </c>
       <c r="AG50" s="27">
-        <v>-86.206896551724142</v>
+        <v>-84.745762711864401</v>
       </c>
       <c r="AH50" s="6"/>
     </row>
     <row r="51" spans="1:34" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="32" t="s">
-        <v>59</v>
+        <v>66</v>
       </c>
       <c r="B51" s="33">
         <v>-4343412.5600000005</v>
@@ -6110,34 +6073,34 @@
         <v>-2258617.6899999995</v>
       </c>
       <c r="G51" s="33">
-        <v>-2198688.8499999996</v>
+        <v>-2563454.3200000003</v>
       </c>
       <c r="H51" s="33">
-        <v>-1374024</v>
+        <v>-1780859.5899999999</v>
       </c>
       <c r="I51" s="33">
-        <v>-1374024</v>
+        <v>-1684424</v>
       </c>
       <c r="J51" s="33">
-        <v>-1374024</v>
+        <v>-1477424</v>
       </c>
       <c r="K51" s="33">
-        <v>-1056024</v>
+        <v>-1159424</v>
       </c>
       <c r="L51" s="33">
-        <v>-1056024</v>
+        <v>-1159424</v>
       </c>
       <c r="M51" s="33">
-        <v>-1056024</v>
+        <v>-1159424</v>
       </c>
       <c r="N51" s="33">
-        <v>-1056024</v>
+        <v>-1159424</v>
       </c>
       <c r="O51" s="33">
-        <v>-1056024</v>
+        <v>-1159424</v>
       </c>
       <c r="P51" s="33">
-        <v>-1056024</v>
+        <v>-1159424</v>
       </c>
       <c r="R51" s="6"/>
       <c r="S51" s="33">
@@ -6156,40 +6119,40 @@
         <v>-1947.0842155172409</v>
       </c>
       <c r="X51" s="33">
-        <v>-1895.4214224137927</v>
+        <v>-2172.4189152542376</v>
       </c>
       <c r="Y51" s="33">
-        <v>-1184.503448275862</v>
+        <v>-1509.2030423728813</v>
       </c>
       <c r="Z51" s="33">
-        <v>-1184.503448275862</v>
+        <v>-1427.4779661016948</v>
       </c>
       <c r="AA51" s="33">
-        <v>-1184.503448275862</v>
+        <v>-1252.0542372881355</v>
       </c>
       <c r="AB51" s="33">
-        <v>-910.36551724137928</v>
+        <v>-982.56271186440677</v>
       </c>
       <c r="AC51" s="33">
-        <v>-910.36551724137928</v>
+        <v>-982.56271186440677</v>
       </c>
       <c r="AD51" s="33">
-        <v>-910.36551724137928</v>
+        <v>-982.56271186440677</v>
       </c>
       <c r="AE51" s="33">
-        <v>-910.36551724137928</v>
+        <v>-982.56271186440677</v>
       </c>
       <c r="AF51" s="33">
-        <v>-910.36551724137928</v>
+        <v>-982.56271186440677</v>
       </c>
       <c r="AG51" s="33">
-        <v>-910.36551724137928</v>
+        <v>-982.56271186440677</v>
       </c>
       <c r="AH51" s="6"/>
     </row>
     <row r="52" spans="1:34" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="35" t="s">
-        <v>60</v>
+        <v>67</v>
       </c>
       <c r="B52" s="36">
         <v>-7472791.0199999996</v>
@@ -6204,37 +6167,37 @@
         <v>-6600959.3600000003</v>
       </c>
       <c r="F52" s="36">
-        <v>-10650994.859999999</v>
+        <v>-7259874.0599999996</v>
       </c>
       <c r="G52" s="36">
-        <v>-7295031.5999999996</v>
+        <v>-10996321.190000001</v>
       </c>
       <c r="H52" s="36">
-        <v>-5655474.2999999998</v>
+        <v>-6874777.4900000002</v>
       </c>
       <c r="I52" s="36">
-        <v>-5655474.2999999998</v>
+        <v>-6778341.9000000004</v>
       </c>
       <c r="J52" s="36">
-        <v>-5755474.2999999998</v>
+        <v>-6671341.9000000004</v>
       </c>
       <c r="K52" s="36">
-        <v>-2817474.3</v>
+        <v>-2933341.9</v>
       </c>
       <c r="L52" s="36">
-        <v>-2817474.3</v>
+        <v>-2933341.9</v>
       </c>
       <c r="M52" s="36">
-        <v>-2817474.3</v>
+        <v>-2933341.9</v>
       </c>
       <c r="N52" s="36">
-        <v>-2817474.3</v>
+        <v>-2933341.9</v>
       </c>
       <c r="O52" s="36">
-        <v>-2817474.3</v>
+        <v>-2933341.9</v>
       </c>
       <c r="P52" s="36">
-        <v>-2817474.3</v>
+        <v>-2933341.9</v>
       </c>
       <c r="R52" s="6"/>
       <c r="S52" s="36">
@@ -6250,43 +6213,43 @@
         <v>-5594.0333559322034</v>
       </c>
       <c r="W52" s="36">
-        <v>-9181.8921206896539</v>
+        <v>-6258.5121206896547</v>
       </c>
       <c r="X52" s="36">
-        <v>-6288.8203448275863</v>
+        <v>-9318.9162627118658</v>
       </c>
       <c r="Y52" s="36">
-        <v>-4875.4088793103447</v>
+        <v>-5826.0826186440681</v>
       </c>
       <c r="Z52" s="36">
-        <v>-4875.4088793103447</v>
+        <v>-5744.3575423728817</v>
       </c>
       <c r="AA52" s="36">
-        <v>-4961.6157758620684</v>
+        <v>-5653.6795762711863</v>
       </c>
       <c r="AB52" s="36">
-        <v>-2428.8571551724135</v>
+        <v>-2485.8829661016948</v>
       </c>
       <c r="AC52" s="36">
-        <v>-2428.8571551724135</v>
+        <v>-2485.8829661016948</v>
       </c>
       <c r="AD52" s="36">
-        <v>-2428.8571551724135</v>
+        <v>-2485.8829661016948</v>
       </c>
       <c r="AE52" s="36">
-        <v>-2428.8571551724135</v>
+        <v>-2485.8829661016948</v>
       </c>
       <c r="AF52" s="36">
-        <v>-2428.8571551724135</v>
+        <v>-2485.8829661016948</v>
       </c>
       <c r="AG52" s="36">
-        <v>-2428.8571551724135</v>
+        <v>-2485.8829661016948</v>
       </c>
       <c r="AH52" s="6"/>
     </row>
     <row r="53" spans="1:34" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="28" t="s">
-        <v>61</v>
+        <v>68</v>
       </c>
       <c r="B53" s="27">
         <v>-191743.4</v>
@@ -6383,7 +6346,7 @@
     </row>
     <row r="54" spans="1:34" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="28" t="s">
-        <v>62</v>
+        <v>69</v>
       </c>
       <c r="B54" s="27">
         <v>0</v>
@@ -6480,7 +6443,7 @@
     </row>
     <row r="55" spans="1:34" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="32" t="s">
-        <v>63</v>
+        <v>70</v>
       </c>
       <c r="B55" s="33">
         <v>-191743.4</v>
@@ -6577,7 +6540,7 @@
     </row>
     <row r="56" spans="1:34" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="28" t="s">
-        <v>64</v>
+        <v>71</v>
       </c>
       <c r="B56" s="27">
         <v>-1192421.25</v>
@@ -6592,7 +6555,7 @@
         <v>-194566.54</v>
       </c>
       <c r="F56" s="27">
-        <v>-168000</v>
+        <v>-166103.73000000001</v>
       </c>
       <c r="G56" s="27">
         <v>-196000</v>
@@ -6638,43 +6601,43 @@
         <v>-164.88689830508474</v>
       </c>
       <c r="W56" s="27">
-        <v>-144.82758620689654</v>
+        <v>-143.19287068965519</v>
       </c>
       <c r="X56" s="27">
-        <v>-168.9655172413793</v>
+        <v>-166.10169491525423</v>
       </c>
       <c r="Y56" s="27">
-        <v>-168.9655172413793</v>
+        <v>-166.10169491525423</v>
       </c>
       <c r="Z56" s="27">
-        <v>-168.9655172413793</v>
+        <v>-166.10169491525423</v>
       </c>
       <c r="AA56" s="27">
-        <v>-168.9655172413793</v>
+        <v>-166.10169491525423</v>
       </c>
       <c r="AB56" s="27">
-        <v>-168.9655172413793</v>
+        <v>-166.10169491525423</v>
       </c>
       <c r="AC56" s="27">
-        <v>-168.9655172413793</v>
+        <v>-166.10169491525423</v>
       </c>
       <c r="AD56" s="27">
-        <v>-168.9655172413793</v>
+        <v>-166.10169491525423</v>
       </c>
       <c r="AE56" s="27">
-        <v>-168.9655172413793</v>
+        <v>-166.10169491525423</v>
       </c>
       <c r="AF56" s="27">
-        <v>-168.9655172413793</v>
+        <v>-166.10169491525423</v>
       </c>
       <c r="AG56" s="27">
-        <v>-168.9655172413793</v>
+        <v>-166.10169491525423</v>
       </c>
       <c r="AH56" s="6"/>
     </row>
     <row r="57" spans="1:34" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="32" t="s">
-        <v>65</v>
+        <v>72</v>
       </c>
       <c r="B57" s="33">
         <v>-1192421.25</v>
@@ -6689,7 +6652,7 @@
         <v>-194566.54</v>
       </c>
       <c r="F57" s="33">
-        <v>-168000</v>
+        <v>-166103.73000000001</v>
       </c>
       <c r="G57" s="33">
         <v>-196000</v>
@@ -6735,43 +6698,43 @@
         <v>-164.88689830508474</v>
       </c>
       <c r="W57" s="33">
-        <v>-144.82758620689654</v>
+        <v>-143.19287068965519</v>
       </c>
       <c r="X57" s="33">
-        <v>-168.9655172413793</v>
+        <v>-166.10169491525423</v>
       </c>
       <c r="Y57" s="33">
-        <v>-168.9655172413793</v>
+        <v>-166.10169491525423</v>
       </c>
       <c r="Z57" s="33">
-        <v>-168.9655172413793</v>
+        <v>-166.10169491525423</v>
       </c>
       <c r="AA57" s="33">
-        <v>-168.9655172413793</v>
+        <v>-166.10169491525423</v>
       </c>
       <c r="AB57" s="33">
-        <v>-168.9655172413793</v>
+        <v>-166.10169491525423</v>
       </c>
       <c r="AC57" s="33">
-        <v>-168.9655172413793</v>
+        <v>-166.10169491525423</v>
       </c>
       <c r="AD57" s="33">
-        <v>-168.9655172413793</v>
+        <v>-166.10169491525423</v>
       </c>
       <c r="AE57" s="33">
-        <v>-168.9655172413793</v>
+        <v>-166.10169491525423</v>
       </c>
       <c r="AF57" s="33">
-        <v>-168.9655172413793</v>
+        <v>-166.10169491525423</v>
       </c>
       <c r="AG57" s="33">
-        <v>-168.9655172413793</v>
+        <v>-166.10169491525423</v>
       </c>
       <c r="AH57" s="6"/>
     </row>
     <row r="58" spans="1:34" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="28" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="B58" s="27">
         <v>0</v>
@@ -6868,7 +6831,7 @@
     </row>
     <row r="59" spans="1:34" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="28" t="s">
-        <v>67</v>
+        <v>74</v>
       </c>
       <c r="B59" s="27">
         <v>-3055576.38</v>
@@ -6886,34 +6849,34 @@
         <v>-491189.26</v>
       </c>
       <c r="G59" s="27">
-        <v>-900000</v>
+        <v>-863535.25999999989</v>
       </c>
       <c r="H59" s="27">
-        <v>-900000</v>
+        <v>-910000</v>
       </c>
       <c r="I59" s="27">
-        <v>-900000</v>
+        <v>-910000</v>
       </c>
       <c r="J59" s="27">
-        <v>-900000</v>
+        <v>-910000</v>
       </c>
       <c r="K59" s="27">
-        <v>-900000</v>
+        <v>-910000</v>
       </c>
       <c r="L59" s="27">
-        <v>-900000</v>
+        <v>-910000</v>
       </c>
       <c r="M59" s="27">
-        <v>-900000</v>
+        <v>-910000</v>
       </c>
       <c r="N59" s="27">
-        <v>-900000</v>
+        <v>-910000</v>
       </c>
       <c r="O59" s="27">
-        <v>-900000</v>
+        <v>-910000</v>
       </c>
       <c r="P59" s="27">
-        <v>-900000</v>
+        <v>-910000</v>
       </c>
       <c r="R59" s="6"/>
       <c r="S59" s="27">
@@ -6932,40 +6895,40 @@
         <v>-423.4390172413793</v>
       </c>
       <c r="X59" s="27">
-        <v>-775.86206896551721</v>
+        <v>-731.80954237288131</v>
       </c>
       <c r="Y59" s="27">
-        <v>-775.86206896551721</v>
+        <v>-771.18644067796606</v>
       </c>
       <c r="Z59" s="27">
-        <v>-775.86206896551721</v>
+        <v>-771.18644067796606</v>
       </c>
       <c r="AA59" s="27">
-        <v>-775.86206896551721</v>
+        <v>-771.18644067796606</v>
       </c>
       <c r="AB59" s="27">
-        <v>-775.86206896551721</v>
+        <v>-771.18644067796606</v>
       </c>
       <c r="AC59" s="27">
-        <v>-775.86206896551721</v>
+        <v>-771.18644067796606</v>
       </c>
       <c r="AD59" s="27">
-        <v>-775.86206896551721</v>
+        <v>-771.18644067796606</v>
       </c>
       <c r="AE59" s="27">
-        <v>-775.86206896551721</v>
+        <v>-771.18644067796606</v>
       </c>
       <c r="AF59" s="27">
-        <v>-775.86206896551721</v>
+        <v>-771.18644067796606</v>
       </c>
       <c r="AG59" s="27">
-        <v>-775.86206896551721</v>
+        <v>-771.18644067796606</v>
       </c>
       <c r="AH59" s="6"/>
     </row>
     <row r="60" spans="1:34" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="32" t="s">
-        <v>68</v>
+        <v>75</v>
       </c>
       <c r="B60" s="33">
         <v>-3055576.38</v>
@@ -6983,34 +6946,34 @@
         <v>-491189.26</v>
       </c>
       <c r="G60" s="33">
-        <v>-900000</v>
+        <v>-863535.25999999989</v>
       </c>
       <c r="H60" s="33">
-        <v>-900000</v>
+        <v>-910000</v>
       </c>
       <c r="I60" s="33">
-        <v>-900000</v>
+        <v>-910000</v>
       </c>
       <c r="J60" s="33">
-        <v>-900000</v>
+        <v>-910000</v>
       </c>
       <c r="K60" s="33">
-        <v>-900000</v>
+        <v>-910000</v>
       </c>
       <c r="L60" s="33">
-        <v>-900000</v>
+        <v>-910000</v>
       </c>
       <c r="M60" s="33">
-        <v>-900000</v>
+        <v>-910000</v>
       </c>
       <c r="N60" s="33">
-        <v>-900000</v>
+        <v>-910000</v>
       </c>
       <c r="O60" s="33">
-        <v>-900000</v>
+        <v>-910000</v>
       </c>
       <c r="P60" s="33">
-        <v>-900000</v>
+        <v>-910000</v>
       </c>
       <c r="R60" s="6"/>
       <c r="S60" s="33">
@@ -7029,40 +6992,40 @@
         <v>-423.4390172413793</v>
       </c>
       <c r="X60" s="33">
-        <v>-775.86206896551721</v>
+        <v>-731.80954237288131</v>
       </c>
       <c r="Y60" s="33">
-        <v>-775.86206896551721</v>
+        <v>-771.18644067796606</v>
       </c>
       <c r="Z60" s="33">
-        <v>-775.86206896551721</v>
+        <v>-771.18644067796606</v>
       </c>
       <c r="AA60" s="33">
-        <v>-775.86206896551721</v>
+        <v>-771.18644067796606</v>
       </c>
       <c r="AB60" s="33">
-        <v>-775.86206896551721</v>
+        <v>-771.18644067796606</v>
       </c>
       <c r="AC60" s="33">
-        <v>-775.86206896551721</v>
+        <v>-771.18644067796606</v>
       </c>
       <c r="AD60" s="33">
-        <v>-775.86206896551721</v>
+        <v>-771.18644067796606</v>
       </c>
       <c r="AE60" s="33">
-        <v>-775.86206896551721</v>
+        <v>-771.18644067796606</v>
       </c>
       <c r="AF60" s="33">
-        <v>-775.86206896551721</v>
+        <v>-771.18644067796606</v>
       </c>
       <c r="AG60" s="33">
-        <v>-775.86206896551721</v>
+        <v>-771.18644067796606</v>
       </c>
       <c r="AH60" s="6"/>
     </row>
     <row r="61" spans="1:34" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="28" t="s">
-        <v>69</v>
+        <v>76</v>
       </c>
       <c r="B61" s="27">
         <v>-3720000</v>
@@ -7073,41 +7036,41 @@
       <c r="D61" s="27">
         <v>-2500000</v>
       </c>
-      <c r="E61" s="61">
+      <c r="E61" s="27">
         <v>-2787000</v>
       </c>
-      <c r="F61" s="61">
-        <v>-4037500</v>
+      <c r="F61" s="27">
+        <v>-4348986.25</v>
       </c>
       <c r="G61" s="27">
-        <v>-3787500</v>
+        <v>-4349486.25</v>
       </c>
       <c r="H61" s="27">
-        <v>-3982625</v>
+        <v>-4544611.25</v>
       </c>
       <c r="I61" s="27">
-        <v>-4052625</v>
+        <v>-4653950.2874999996</v>
       </c>
       <c r="J61" s="27">
-        <v>-4052625</v>
+        <v>-4653950.2874999996</v>
       </c>
       <c r="K61" s="27">
-        <v>-4261408.75</v>
+        <v>-4862734.0374999996</v>
       </c>
       <c r="L61" s="27">
-        <v>-4336308.75</v>
+        <v>-4979726.8076250004</v>
       </c>
       <c r="M61" s="27">
-        <v>-4336308.75</v>
+        <v>-4979726.8076250004</v>
       </c>
       <c r="N61" s="27">
-        <v>-4559707.3625000007</v>
+        <v>-5203125.4201250002</v>
       </c>
       <c r="O61" s="27">
-        <v>-4639850.3625000007</v>
+        <v>-5328307.6841587508</v>
       </c>
       <c r="P61" s="27">
-        <v>-3414807.3625000003</v>
+        <v>-5328307.6841587508</v>
       </c>
       <c r="R61" s="6"/>
       <c r="S61" s="27">
@@ -7123,43 +7086,43 @@
         <v>-2361.8644067796608</v>
       </c>
       <c r="W61" s="27">
-        <v>-3480.6034482758619</v>
+        <v>-3749.126077586207</v>
       </c>
       <c r="X61" s="27">
-        <v>-3265.0862068965516</v>
+        <v>-3686.0052966101694</v>
       </c>
       <c r="Y61" s="27">
-        <v>-3433.2974137931033</v>
+        <v>-3851.3654661016949</v>
       </c>
       <c r="Z61" s="27">
-        <v>-3493.6422413793102</v>
+        <v>-3944.0256673728809</v>
       </c>
       <c r="AA61" s="27">
-        <v>-3493.6422413793102</v>
+        <v>-3944.0256673728809</v>
       </c>
       <c r="AB61" s="27">
-        <v>-3673.6282327586205</v>
+        <v>-4120.9610487288137</v>
       </c>
       <c r="AC61" s="27">
-        <v>-3738.1971982758619</v>
+        <v>-4220.1074640889838</v>
       </c>
       <c r="AD61" s="27">
-        <v>-3738.1971982758619</v>
+        <v>-4220.1074640889838</v>
       </c>
       <c r="AE61" s="27">
-        <v>-3930.7822090517247</v>
+        <v>-4409.4283221398309</v>
       </c>
       <c r="AF61" s="27">
-        <v>-3999.8710021551728</v>
+        <v>-4515.5149865752128</v>
       </c>
       <c r="AG61" s="27">
-        <v>-2943.7994504310345</v>
+        <v>-4515.5149865752128</v>
       </c>
       <c r="AH61" s="6"/>
     </row>
     <row r="62" spans="1:34" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="28" t="s">
-        <v>70</v>
+        <v>77</v>
       </c>
       <c r="B62" s="27">
         <v>0</v>
@@ -7256,7 +7219,7 @@
     </row>
     <row r="63" spans="1:34" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="28" t="s">
-        <v>71</v>
+        <v>78</v>
       </c>
       <c r="B63" s="27">
         <v>0</v>
@@ -7274,34 +7237,34 @@
         <v>-3053515.62</v>
       </c>
       <c r="G63" s="27">
-        <v>-3190000</v>
+        <v>-3162500</v>
       </c>
       <c r="H63" s="27">
-        <v>-3190000</v>
+        <v>-3245000</v>
       </c>
       <c r="I63" s="27">
-        <v>-3190000</v>
+        <v>-3245000</v>
       </c>
       <c r="J63" s="27">
-        <v>-3190000</v>
+        <v>-3245000</v>
       </c>
       <c r="K63" s="27">
-        <v>-3190000</v>
+        <v>-3245000</v>
       </c>
       <c r="L63" s="27">
-        <v>-3190000</v>
+        <v>-3245000</v>
       </c>
       <c r="M63" s="27">
-        <v>-3190000</v>
+        <v>-3245000</v>
       </c>
       <c r="N63" s="27">
-        <v>-3190000</v>
+        <v>-3245000</v>
       </c>
       <c r="O63" s="27">
-        <v>-3190000</v>
+        <v>-3245000</v>
       </c>
       <c r="P63" s="27">
-        <v>-3190000</v>
+        <v>-3245000</v>
       </c>
       <c r="R63" s="6"/>
       <c r="S63" s="27">
@@ -7320,7 +7283,7 @@
         <v>-2632.3410517241382</v>
       </c>
       <c r="X63" s="27">
-        <v>-2750</v>
+        <v>-2680.0847457627119</v>
       </c>
       <c r="Y63" s="27">
         <v>-2750</v>
@@ -7353,7 +7316,7 @@
     </row>
     <row r="64" spans="1:34" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="28" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="B64" s="27">
         <v>0</v>
@@ -7364,41 +7327,41 @@
       <c r="D64" s="27">
         <v>-3600000</v>
       </c>
-      <c r="E64" s="61">
+      <c r="E64" s="27">
         <v>-3540000</v>
       </c>
-      <c r="F64" s="61">
+      <c r="F64" s="27">
         <v>-5389290</v>
       </c>
       <c r="G64" s="27">
-        <v>-5510000</v>
+        <v>-6499662</v>
       </c>
       <c r="H64" s="27">
-        <v>-5510000</v>
+        <v>-5605000</v>
       </c>
       <c r="I64" s="27">
-        <v>-5510000</v>
+        <v>-5605000</v>
       </c>
       <c r="J64" s="27">
-        <v>-5510000</v>
+        <v>-5605000</v>
       </c>
       <c r="K64" s="27">
-        <v>-5510000</v>
+        <v>-5605000</v>
       </c>
       <c r="L64" s="27">
-        <v>-5510000</v>
+        <v>-5605000</v>
       </c>
       <c r="M64" s="27">
-        <v>-5510000</v>
+        <v>-5605000</v>
       </c>
       <c r="N64" s="27">
-        <v>-5510000</v>
+        <v>-5605000</v>
       </c>
       <c r="O64" s="27">
-        <v>-5510000</v>
+        <v>-5605000</v>
       </c>
       <c r="P64" s="27">
-        <v>-5510000</v>
+        <v>-5605000</v>
       </c>
       <c r="R64" s="6"/>
       <c r="S64" s="27">
@@ -7417,7 +7380,7 @@
         <v>-4645.9396551724139</v>
       </c>
       <c r="X64" s="27">
-        <v>-4750</v>
+        <v>-5508.1881355932201</v>
       </c>
       <c r="Y64" s="27">
         <v>-4750</v>
@@ -7450,7 +7413,7 @@
     </row>
     <row r="65" spans="1:34" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="28" t="s">
-        <v>73</v>
+        <v>80</v>
       </c>
       <c r="B65" s="27">
         <v>0</v>
@@ -7547,7 +7510,7 @@
     </row>
     <row r="66" spans="1:34" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="28" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="B66" s="27">
         <v>0</v>
@@ -7644,7 +7607,7 @@
     </row>
     <row r="67" spans="1:34" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" s="28" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="B67" s="27">
         <v>0</v>
@@ -7662,34 +7625,34 @@
         <v>-985460.88888888981</v>
       </c>
       <c r="G67" s="27">
-        <v>-966666.66666666733</v>
+        <v>-943073.99</v>
       </c>
       <c r="H67" s="27">
-        <v>-966666.66666666733</v>
+        <v>-983333.33333333407</v>
       </c>
       <c r="I67" s="27">
-        <v>-966666.66666666733</v>
+        <v>-983333.33333333407</v>
       </c>
       <c r="J67" s="27">
-        <v>-966666.66666666733</v>
+        <v>-983333.33333333407</v>
       </c>
       <c r="K67" s="27">
-        <v>-966666.66666666733</v>
+        <v>-983333.33333333407</v>
       </c>
       <c r="L67" s="27">
-        <v>-966666.66666666733</v>
+        <v>-983333.33333333407</v>
       </c>
       <c r="M67" s="27">
-        <v>-966666.66666666733</v>
+        <v>-983333.33333333407</v>
       </c>
       <c r="N67" s="27">
-        <v>-966666.66666666733</v>
+        <v>-983333.33333333407</v>
       </c>
       <c r="O67" s="27">
-        <v>-966666.66666666733</v>
+        <v>-983333.33333333407</v>
       </c>
       <c r="P67" s="27">
-        <v>-966666.66666666733</v>
+        <v>-983333.33333333407</v>
       </c>
       <c r="R67" s="6"/>
       <c r="S67" s="27">
@@ -7708,7 +7671,7 @@
         <v>-849.53524904214635</v>
       </c>
       <c r="X67" s="27">
-        <v>-833.33333333333394</v>
+        <v>-799.2152457627119</v>
       </c>
       <c r="Y67" s="27">
         <v>-833.33333333333394</v>
@@ -7741,7 +7704,7 @@
     </row>
     <row r="68" spans="1:34" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" s="28" t="s">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="B68" s="27">
         <v>0</v>
@@ -7759,34 +7722,34 @@
         <v>-2011955</v>
       </c>
       <c r="G68" s="27">
-        <v>-2030000</v>
+        <v>-2280829.5</v>
       </c>
       <c r="H68" s="27">
-        <v>-2030000</v>
+        <v>-2065000</v>
       </c>
       <c r="I68" s="27">
-        <v>-2030000</v>
+        <v>-2065000</v>
       </c>
       <c r="J68" s="27">
-        <v>-2030000</v>
+        <v>-2065000</v>
       </c>
       <c r="K68" s="27">
-        <v>-2030000</v>
+        <v>-2065000</v>
       </c>
       <c r="L68" s="27">
-        <v>-2030000</v>
+        <v>-2065000</v>
       </c>
       <c r="M68" s="27">
-        <v>-2030000</v>
+        <v>-2065000</v>
       </c>
       <c r="N68" s="27">
-        <v>-2030000</v>
+        <v>-2065000</v>
       </c>
       <c r="O68" s="27">
-        <v>-2030000</v>
+        <v>-2065000</v>
       </c>
       <c r="P68" s="27">
-        <v>-2030000</v>
+        <v>-2065000</v>
       </c>
       <c r="R68" s="6"/>
       <c r="S68" s="27">
@@ -7805,7 +7768,7 @@
         <v>-1734.4439655172414</v>
       </c>
       <c r="X68" s="27">
-        <v>-1750</v>
+        <v>-1932.9063559322035</v>
       </c>
       <c r="Y68" s="27">
         <v>-1750</v>
@@ -7838,7 +7801,7 @@
     </row>
     <row r="69" spans="1:34" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" s="32" t="s">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="B69" s="33">
         <v>-3720000</v>
@@ -7853,37 +7816,37 @@
         <v>-11213675</v>
       </c>
       <c r="F69" s="33">
-        <v>-15477721.508888891</v>
+        <v>-15789207.758888891</v>
       </c>
       <c r="G69" s="33">
-        <v>-15484166.666666668</v>
+        <v>-17235551.740000002</v>
       </c>
       <c r="H69" s="33">
-        <v>-15679291.666666668</v>
+        <v>-16442944.583333334</v>
       </c>
       <c r="I69" s="33">
-        <v>-15749291.666666668</v>
+        <v>-16552283.620833334</v>
       </c>
       <c r="J69" s="33">
-        <v>-15749291.666666668</v>
+        <v>-16552283.620833334</v>
       </c>
       <c r="K69" s="33">
-        <v>-15958075.416666668</v>
+        <v>-16761067.370833334</v>
       </c>
       <c r="L69" s="33">
-        <v>-16032975.416666668</v>
+        <v>-16878060.140958335</v>
       </c>
       <c r="M69" s="33">
-        <v>-16032975.416666668</v>
+        <v>-16878060.140958335</v>
       </c>
       <c r="N69" s="33">
-        <v>-16256374.029166669</v>
+        <v>-17101458.753458336</v>
       </c>
       <c r="O69" s="33">
-        <v>-16336517.029166669</v>
+        <v>-17226641.017492086</v>
       </c>
       <c r="P69" s="33">
-        <v>-15111474.029166669</v>
+        <v>-17226641.017492086</v>
       </c>
       <c r="R69" s="6"/>
       <c r="S69" s="33">
@@ -7899,43 +7862,43 @@
         <v>-9503.1144067796613</v>
       </c>
       <c r="W69" s="33">
-        <v>-13342.863369731802</v>
+        <v>-13611.385999042148</v>
       </c>
       <c r="X69" s="33">
-        <v>-13348.419540229886</v>
+        <v>-14606.399779661018</v>
       </c>
       <c r="Y69" s="33">
-        <v>-13516.630747126437</v>
+        <v>-13934.698799435029</v>
       </c>
       <c r="Z69" s="33">
-        <v>-13576.975574712644</v>
+        <v>-14027.359000706216</v>
       </c>
       <c r="AA69" s="33">
-        <v>-13576.975574712644</v>
+        <v>-14027.359000706216</v>
       </c>
       <c r="AB69" s="33">
-        <v>-13756.961566091955</v>
+        <v>-14204.294382062148</v>
       </c>
       <c r="AC69" s="33">
-        <v>-13821.530531609196</v>
+        <v>-14303.440797422318</v>
       </c>
       <c r="AD69" s="33">
-        <v>-13821.530531609196</v>
+        <v>-14303.440797422318</v>
       </c>
       <c r="AE69" s="33">
-        <v>-14014.115542385058</v>
+        <v>-14492.761655473165</v>
       </c>
       <c r="AF69" s="33">
-        <v>-14083.204335488506</v>
+        <v>-14598.848319908546</v>
       </c>
       <c r="AG69" s="33">
-        <v>-13027.132783764369</v>
+        <v>-14598.848319908546</v>
       </c>
       <c r="AH69" s="6"/>
     </row>
     <row r="70" spans="1:34" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" s="28" t="s">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="B70" s="27">
         <v>-7539407</v>
@@ -7946,10 +7909,10 @@
       <c r="D70" s="27">
         <v>-11197385.001353126</v>
       </c>
-      <c r="E70" s="61">
+      <c r="E70" s="27">
         <v>-9467800</v>
       </c>
-      <c r="F70" s="61">
+      <c r="F70" s="27">
         <v>-11145370.001129337</v>
       </c>
       <c r="G70" s="27">
@@ -7999,40 +7962,40 @@
         <v>-9608.0775871804635</v>
       </c>
       <c r="X70" s="27">
-        <v>-9839.9465783696342</v>
+        <v>-9673.1678228040455</v>
       </c>
       <c r="Y70" s="27">
-        <v>-10003.427957679976</v>
+        <v>-9833.8783312786218</v>
       </c>
       <c r="Z70" s="27">
-        <v>-10528.742838855507</v>
+        <v>-10350.289570400329</v>
       </c>
       <c r="AA70" s="27">
-        <v>-10528.742838855507</v>
+        <v>-10350.289570400329</v>
       </c>
       <c r="AB70" s="27">
-        <v>-10703.667914717576</v>
+        <v>-10522.249814468127</v>
       </c>
       <c r="AC70" s="27">
-        <v>-11265.754837575392</v>
+        <v>-11074.809840328353</v>
       </c>
       <c r="AD70" s="27">
-        <v>-11265.754837575392</v>
+        <v>-11074.809840328353</v>
       </c>
       <c r="AE70" s="27">
-        <v>-11265.754837575392</v>
+        <v>-11074.809840328353</v>
       </c>
       <c r="AF70" s="27">
-        <v>-11265.754837575392</v>
+        <v>-11074.809840328353</v>
       </c>
       <c r="AG70" s="27">
-        <v>-11265.754837575392</v>
+        <v>-11074.809840328353</v>
       </c>
       <c r="AH70" s="6"/>
     </row>
     <row r="71" spans="1:34" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" s="28" t="s">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="B71" s="27">
         <v>-5112447</v>
@@ -8043,10 +8006,10 @@
       <c r="D71" s="27">
         <v>-6674656.9975000005</v>
       </c>
-      <c r="E71" s="61">
+      <c r="E71" s="27">
         <v>-6846781</v>
       </c>
-      <c r="F71" s="61">
+      <c r="F71" s="27">
         <v>-8228507.00404</v>
       </c>
       <c r="G71" s="27">
@@ -8096,40 +8059,40 @@
         <v>-7093.5405207241383</v>
       </c>
       <c r="X71" s="27">
-        <v>-7211.1601910803447</v>
+        <v>-7088.9371369942373</v>
       </c>
       <c r="Y71" s="27">
-        <v>-7462.4931285939001</v>
+        <v>-7336.0101942109532</v>
       </c>
       <c r="Z71" s="27">
-        <v>-7462.4931285939001</v>
+        <v>-7336.0101942109532</v>
       </c>
       <c r="AA71" s="27">
-        <v>-7462.4931285939001</v>
+        <v>-7336.0101942109532</v>
       </c>
       <c r="AB71" s="27">
-        <v>-7731.4193717334047</v>
+        <v>-7600.378365432839</v>
       </c>
       <c r="AC71" s="27">
-        <v>-7731.4193717334047</v>
+        <v>-7600.378365432839</v>
       </c>
       <c r="AD71" s="27">
-        <v>-7731.4193717334047</v>
+        <v>-7600.378365432839</v>
       </c>
       <c r="AE71" s="27">
-        <v>-7731.4193717334047</v>
+        <v>-7600.378365432839</v>
       </c>
       <c r="AF71" s="27">
-        <v>-7731.4193717334047</v>
+        <v>-7600.378365432839</v>
       </c>
       <c r="AG71" s="27">
-        <v>-7731.4193717334047</v>
+        <v>-7600.378365432839</v>
       </c>
       <c r="AH71" s="6"/>
     </row>
     <row r="72" spans="1:34" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A72" s="28" t="s">
-        <v>80</v>
+        <v>87</v>
       </c>
       <c r="B72" s="27">
         <v>-6168746.1985335834</v>
@@ -8147,7 +8110,7 @@
         <v>-4670664.6400757199</v>
       </c>
       <c r="G72" s="27">
-        <v>-4775856.1484313663</v>
+        <v>-5224796.905701492</v>
       </c>
       <c r="H72" s="27">
         <v>-4775856.1484313663</v>
@@ -8193,40 +8156,40 @@
         <v>-4026.4350345480343</v>
       </c>
       <c r="X72" s="27">
-        <v>-4117.1173693373848</v>
+        <v>-4427.7939878826201</v>
       </c>
       <c r="Y72" s="27">
-        <v>-4117.1173693373848</v>
+        <v>-4047.3357190096326</v>
       </c>
       <c r="Z72" s="27">
-        <v>-4185.5193693849678</v>
+        <v>-4114.5783631242057</v>
       </c>
       <c r="AA72" s="27">
-        <v>-4405.3155851910024</v>
+        <v>-4330.6492193403074</v>
       </c>
       <c r="AB72" s="27">
-        <v>-4405.3155851910024</v>
+        <v>-4330.6492193403074</v>
       </c>
       <c r="AC72" s="27">
-        <v>-4478.5057252419156</v>
+        <v>-4402.5988485428998</v>
       </c>
       <c r="AD72" s="27">
-        <v>-4713.6876761543717</v>
+        <v>-4633.7946646941282</v>
       </c>
       <c r="AE72" s="27">
-        <v>-4713.6876761543717</v>
+        <v>-4633.7946646941282</v>
       </c>
       <c r="AF72" s="27">
-        <v>-4713.6876761543717</v>
+        <v>-4633.7946646941282</v>
       </c>
       <c r="AG72" s="27">
-        <v>-4713.6876761543717</v>
+        <v>-4633.7946646941282</v>
       </c>
       <c r="AH72" s="6"/>
     </row>
     <row r="73" spans="1:34" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A73" s="28" t="s">
-        <v>81</v>
+        <v>88</v>
       </c>
       <c r="B73" s="27">
         <v>-6584873.7014664188</v>
@@ -8244,7 +8207,7 @@
         <v>-1911724.7299242811</v>
       </c>
       <c r="G73" s="27">
-        <v>-1742648.7682739748</v>
+        <v>-1997572.0642985075</v>
       </c>
       <c r="H73" s="27">
         <v>-1742648.7682739748</v>
@@ -8290,40 +8253,40 @@
         <v>-1648.0385602795527</v>
       </c>
       <c r="X73" s="27">
-        <v>-1502.2834209258403</v>
+        <v>-1692.8576816089046</v>
       </c>
       <c r="Y73" s="27">
-        <v>-1502.2834209258403</v>
+        <v>-1476.8209900626905</v>
       </c>
       <c r="Z73" s="27">
-        <v>-1607.4432603906491</v>
+        <v>-1580.1984593670788</v>
       </c>
       <c r="AA73" s="27">
-        <v>-1607.4432603906491</v>
+        <v>-1580.1984593670788</v>
       </c>
       <c r="AB73" s="27">
-        <v>-1607.4432603906491</v>
+        <v>-1580.1984593670788</v>
       </c>
       <c r="AC73" s="27">
-        <v>-1719.9642886179945</v>
+        <v>-1690.8123515227742</v>
       </c>
       <c r="AD73" s="27">
-        <v>-1719.9642886179945</v>
+        <v>-1690.8123515227742</v>
       </c>
       <c r="AE73" s="27">
-        <v>-1719.9642886179945</v>
+        <v>-1690.8123515227742</v>
       </c>
       <c r="AF73" s="27">
-        <v>-1719.9642886179945</v>
+        <v>-1690.8123515227742</v>
       </c>
       <c r="AG73" s="27">
-        <v>-1719.9642886179945</v>
+        <v>-1690.8123515227742</v>
       </c>
       <c r="AH73" s="6"/>
     </row>
     <row r="74" spans="1:34" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A74" s="28" t="s">
-        <v>82</v>
+        <v>89</v>
       </c>
       <c r="B74" s="27">
         <v>-1434573.43</v>
@@ -8420,7 +8383,7 @@
     </row>
     <row r="75" spans="1:34" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A75" s="28" t="s">
-        <v>83</v>
+        <v>90</v>
       </c>
       <c r="B75" s="27">
         <v>0</v>
@@ -8438,9 +8401,9 @@
         <v>-4060000</v>
       </c>
       <c r="G75" s="27">
-        <v>-4060000</v>
-      </c>
-      <c r="H75" s="61">
+        <v>-4130000</v>
+      </c>
+      <c r="H75" s="27">
         <v>0</v>
       </c>
       <c r="I75" s="27">
@@ -8517,7 +8480,7 @@
     </row>
     <row r="76" spans="1:34" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A76" s="28" t="s">
-        <v>84</v>
+        <v>91</v>
       </c>
       <c r="B76" s="27">
         <v>0</v>
@@ -8614,7 +8577,7 @@
     </row>
     <row r="77" spans="1:34" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A77" s="28" t="s">
-        <v>85</v>
+        <v>92</v>
       </c>
       <c r="B77" s="27">
         <v>0</v>
@@ -8631,10 +8594,10 @@
       <c r="F77" s="27">
         <v>0</v>
       </c>
-      <c r="G77" s="61">
-        <v>-13148894.384633657</v>
-      </c>
-      <c r="H77" s="61">
+      <c r="G77" s="27">
+        <v>-13500826.411280986</v>
+      </c>
+      <c r="H77" s="27">
         <v>0</v>
       </c>
       <c r="I77" s="27">
@@ -8678,7 +8641,7 @@
         <v>0</v>
       </c>
       <c r="X77" s="27">
-        <v>-11335.253779856601</v>
+        <v>-11441.378314644904</v>
       </c>
       <c r="Y77" s="27">
         <v>0</v>
@@ -8696,7 +8659,7 @@
         <v>0</v>
       </c>
       <c r="AD77" s="27">
-        <v>-12715.413087040581</v>
+        <v>-12499.897610989046</v>
       </c>
       <c r="AE77" s="27">
         <v>0</v>
@@ -8711,7 +8674,7 @@
     </row>
     <row r="78" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A78" s="32" t="s">
-        <v>86</v>
+        <v>93</v>
       </c>
       <c r="B78" s="33">
         <v>-26840047.330000002</v>
@@ -8729,7 +8692,7 @@
         <v>-30016266.375169337</v>
       </c>
       <c r="G78" s="33">
-        <v>-43506683.153900973</v>
+        <v>-44632479.233842954</v>
       </c>
       <c r="H78" s="33">
         <v>-26778973.376783039</v>
@@ -8775,40 +8738,40 @@
         <v>-25876.091702732188</v>
       </c>
       <c r="X78" s="33">
-        <v>-37505.761339569806</v>
+        <v>-37824.134943934703</v>
       </c>
       <c r="Y78" s="33">
-        <v>-23085.321876537102</v>
+        <v>-22694.045234561898</v>
       </c>
       <c r="Z78" s="33">
-        <v>-23784.198597225022</v>
+        <v>-23381.076587102565</v>
       </c>
       <c r="AA78" s="33">
-        <v>-24003.994813031059</v>
+        <v>-23597.147443318667</v>
       </c>
       <c r="AB78" s="33">
-        <v>-24447.846132032635</v>
+        <v>-24033.475858608352</v>
       </c>
       <c r="AC78" s="33">
-        <v>-25195.644223168707</v>
+        <v>-24768.599405826866</v>
       </c>
       <c r="AD78" s="33">
-        <v>-38146.239261121744</v>
+        <v>-37499.692832967143</v>
       </c>
       <c r="AE78" s="33">
-        <v>-25430.826174081165</v>
+        <v>-24999.795221978093</v>
       </c>
       <c r="AF78" s="33">
-        <v>-25430.826174081165</v>
+        <v>-24999.795221978093</v>
       </c>
       <c r="AG78" s="33">
-        <v>-25430.826174081165</v>
+        <v>-24999.795221978093</v>
       </c>
       <c r="AH78" s="6"/>
     </row>
     <row r="79" spans="1:34" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A79" s="35" t="s">
-        <v>87</v>
+        <v>94</v>
       </c>
       <c r="B79" s="36">
         <v>-34999788.359999999</v>
@@ -8823,37 +8786,37 @@
         <v>-38445068.399999999</v>
       </c>
       <c r="F79" s="36">
-        <v>-46153177.144058228</v>
+        <v>-46462767.124058224</v>
       </c>
       <c r="G79" s="36">
-        <v>-60086849.820567638</v>
+        <v>-62927566.233842954</v>
       </c>
       <c r="H79" s="36">
-        <v>-43554265.043449707</v>
+        <v>-44327917.960116372</v>
       </c>
       <c r="I79" s="36">
-        <v>-44434962.039447695</v>
+        <v>-45247953.993614361</v>
       </c>
       <c r="J79" s="36">
-        <v>-44689925.649782695</v>
+        <v>-45502917.603949361</v>
       </c>
       <c r="K79" s="36">
-        <v>-45413576.929824531</v>
+        <v>-46226568.883991189</v>
       </c>
       <c r="L79" s="36">
-        <v>-46355922.715542376</v>
+        <v>-47211007.439834036</v>
       </c>
       <c r="M79" s="36">
-        <v>-61378612.95956789</v>
+        <v>-62233697.683859564</v>
       </c>
       <c r="N79" s="36">
-        <v>-46852132.391100824</v>
+        <v>-47707217.115392484</v>
       </c>
       <c r="O79" s="36">
-        <v>-46932275.391100824</v>
+        <v>-47832399.379426241</v>
       </c>
       <c r="P79" s="36">
-        <v>-45707232.391100824</v>
+        <v>-47832399.379426241</v>
       </c>
       <c r="R79" s="6"/>
       <c r="S79" s="36">
@@ -8869,43 +8832,43 @@
         <v>-32580.566440677965</v>
       </c>
       <c r="W79" s="36">
-        <v>-39787.221675912268</v>
+        <v>-40054.109589705367</v>
       </c>
       <c r="X79" s="36">
-        <v>-51799.008466006591</v>
+        <v>-53328.445960883859</v>
       </c>
       <c r="Y79" s="36">
-        <v>-37546.780209870434</v>
+        <v>-37566.032169590144</v>
       </c>
       <c r="Z79" s="36">
-        <v>-38306.001758144565</v>
+        <v>-38345.723723401999</v>
       </c>
       <c r="AA79" s="36">
-        <v>-38525.797973950597</v>
+        <v>-38561.794579618101</v>
       </c>
       <c r="AB79" s="36">
-        <v>-39149.635284331489</v>
+        <v>-39175.058376263718</v>
       </c>
       <c r="AC79" s="36">
-        <v>-39962.0023409848</v>
+        <v>-40009.328338842402</v>
       </c>
       <c r="AD79" s="36">
-        <v>-52912.59737893784</v>
+        <v>-52740.421765982683</v>
       </c>
       <c r="AE79" s="36">
-        <v>-40389.769302673121</v>
+        <v>-40429.845013044476</v>
       </c>
       <c r="AF79" s="36">
-        <v>-40458.858095776566</v>
+        <v>-40535.931677479864</v>
       </c>
       <c r="AG79" s="36">
-        <v>-39402.786544052433</v>
+        <v>-40535.931677479864</v>
       </c>
       <c r="AH79" s="6"/>
     </row>
     <row r="80" spans="1:34" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A80" s="28" t="s">
-        <v>88</v>
+        <v>95</v>
       </c>
       <c r="B80" s="27">
         <v>-6627140.8799999999</v>
@@ -8922,35 +8885,35 @@
       <c r="F80" s="27">
         <v>0</v>
       </c>
-      <c r="G80" s="61">
-        <v>0</v>
-      </c>
-      <c r="H80" s="61">
-        <v>-9964855.2599999998</v>
-      </c>
-      <c r="I80" s="61">
+      <c r="G80" s="27">
+        <v>0</v>
+      </c>
+      <c r="H80" s="27">
+        <v>-9964161.3800000008</v>
+      </c>
+      <c r="I80" s="27">
         <v>0</v>
       </c>
       <c r="J80" s="27">
-        <v>-5830000</v>
+        <v>0</v>
       </c>
       <c r="K80" s="27">
-        <v>-6860000</v>
+        <v>-1464497.1363799963</v>
       </c>
       <c r="L80" s="27">
-        <v>-7450000</v>
+        <v>-3517999.3477199972</v>
       </c>
       <c r="M80" s="27">
-        <v>-7500000</v>
+        <v>-3045686.5914743971</v>
       </c>
       <c r="N80" s="27">
-        <v>-7480000</v>
+        <v>-2945501.7599438857</v>
       </c>
       <c r="O80" s="27">
-        <v>-5200000</v>
+        <v>-595391.12178276293</v>
       </c>
       <c r="P80" s="27">
-        <v>-5200000</v>
+        <v>0</v>
       </c>
       <c r="R80" s="6"/>
       <c r="S80" s="27">
@@ -8972,37 +8935,37 @@
         <v>0</v>
       </c>
       <c r="Y80" s="27">
-        <v>-8590.3924655172414</v>
+        <v>-8444.2045593220355</v>
       </c>
       <c r="Z80" s="27">
         <v>0</v>
       </c>
       <c r="AA80" s="27">
-        <v>-5025.8620689655172</v>
+        <v>0</v>
       </c>
       <c r="AB80" s="27">
-        <v>-5913.7931034482763</v>
+        <v>-1241.099268118641</v>
       </c>
       <c r="AC80" s="27">
-        <v>-6422.4137931034484</v>
+        <v>-2981.3553794237264</v>
       </c>
       <c r="AD80" s="27">
-        <v>-6465.5172413793107</v>
+        <v>-2581.0903317579637</v>
       </c>
       <c r="AE80" s="27">
-        <v>-6448.2758620689656</v>
+        <v>-2496.1879321558354</v>
       </c>
       <c r="AF80" s="27">
-        <v>-4482.7586206896549</v>
+        <v>-504.56874727352789</v>
       </c>
       <c r="AG80" s="27">
-        <v>-4482.7586206896549</v>
+        <v>0</v>
       </c>
       <c r="AH80" s="6"/>
     </row>
     <row r="81" spans="1:34" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A81" s="28" t="s">
-        <v>89</v>
+        <v>96</v>
       </c>
       <c r="B81" s="27">
         <v>0</v>
@@ -9099,7 +9062,7 @@
     </row>
     <row r="82" spans="1:34" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A82" s="37" t="s">
-        <v>90</v>
+        <v>97</v>
       </c>
       <c r="B82" s="27">
         <v>0</v>
@@ -9196,7 +9159,7 @@
     </row>
     <row r="83" spans="1:34" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A83" s="28" t="s">
-        <v>91</v>
+        <v>98</v>
       </c>
       <c r="B83" s="27">
         <v>-360521.08999999997</v>
@@ -9214,7 +9177,7 @@
         <v>-486957.01</v>
       </c>
       <c r="G83" s="27">
-        <v>-805000</v>
+        <v>-940421.76</v>
       </c>
       <c r="H83" s="27">
         <v>-805000</v>
@@ -9260,40 +9223,40 @@
         <v>-419.79052586206899</v>
       </c>
       <c r="X83" s="27">
-        <v>-693.9655172413793</v>
+        <v>-796.96759322033904</v>
       </c>
       <c r="Y83" s="27">
-        <v>-693.9655172413793</v>
+        <v>-682.20338983050851</v>
       </c>
       <c r="Z83" s="27">
-        <v>-693.9655172413793</v>
+        <v>-682.20338983050851</v>
       </c>
       <c r="AA83" s="27">
-        <v>-693.9655172413793</v>
+        <v>-682.20338983050851</v>
       </c>
       <c r="AB83" s="27">
-        <v>-681.0344827586207</v>
+        <v>-669.49152542372883</v>
       </c>
       <c r="AC83" s="27">
-        <v>-681.0344827586207</v>
+        <v>-669.49152542372883</v>
       </c>
       <c r="AD83" s="27">
-        <v>-681.0344827586207</v>
+        <v>-669.49152542372883</v>
       </c>
       <c r="AE83" s="27">
-        <v>-681.0344827586207</v>
+        <v>-669.49152542372883</v>
       </c>
       <c r="AF83" s="27">
-        <v>-681.0344827586207</v>
+        <v>-669.49152542372883</v>
       </c>
       <c r="AG83" s="27">
-        <v>-681.0344827586207</v>
+        <v>-669.49152542372883</v>
       </c>
       <c r="AH83" s="6"/>
     </row>
     <row r="84" spans="1:34" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A84" s="28" t="s">
-        <v>92</v>
+        <v>99</v>
       </c>
       <c r="B84" s="27">
         <v>-40178.14</v>
@@ -9390,7 +9353,7 @@
     </row>
     <row r="85" spans="1:34" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A85" s="28" t="s">
-        <v>93</v>
+        <v>100</v>
       </c>
       <c r="B85" s="27">
         <v>-68798.98</v>
@@ -9408,7 +9371,7 @@
         <v>-283018.01</v>
       </c>
       <c r="G85" s="27">
-        <v>-300000</v>
+        <v>-205684.84</v>
       </c>
       <c r="H85" s="27">
         <v>-300000</v>
@@ -9454,40 +9417,40 @@
         <v>-243.98104310344829</v>
       </c>
       <c r="X85" s="27">
-        <v>-258.62068965517244</v>
+        <v>-174.30918644067796</v>
       </c>
       <c r="Y85" s="27">
-        <v>-258.62068965517244</v>
+        <v>-254.23728813559322</v>
       </c>
       <c r="Z85" s="27">
-        <v>-258.62068965517244</v>
+        <v>-254.23728813559322</v>
       </c>
       <c r="AA85" s="27">
-        <v>-258.62068965517244</v>
+        <v>-254.23728813559322</v>
       </c>
       <c r="AB85" s="27">
-        <v>-258.62068965517244</v>
+        <v>-254.23728813559322</v>
       </c>
       <c r="AC85" s="27">
-        <v>-258.62068965517244</v>
+        <v>-254.23728813559322</v>
       </c>
       <c r="AD85" s="27">
-        <v>-258.62068965517244</v>
+        <v>-254.23728813559322</v>
       </c>
       <c r="AE85" s="27">
-        <v>-258.62068965517244</v>
+        <v>-254.23728813559322</v>
       </c>
       <c r="AF85" s="27">
-        <v>-258.62068965517244</v>
+        <v>-254.23728813559322</v>
       </c>
       <c r="AG85" s="27">
-        <v>-258.62068965517244</v>
+        <v>-254.23728813559322</v>
       </c>
       <c r="AH85" s="6"/>
     </row>
     <row r="86" spans="1:34" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A86" s="28" t="s">
-        <v>94</v>
+        <v>101</v>
       </c>
       <c r="B86" s="27">
         <v>0</v>
@@ -9505,13 +9468,13 @@
         <v>0</v>
       </c>
       <c r="G86" s="27">
-        <v>0</v>
+        <v>-461788.28</v>
       </c>
       <c r="H86" s="27">
         <v>0</v>
       </c>
       <c r="I86" s="27">
-        <v>-660000.01</v>
+        <v>0</v>
       </c>
       <c r="J86" s="27">
         <v>0</v>
@@ -9551,13 +9514,13 @@
         <v>0</v>
       </c>
       <c r="X86" s="27">
-        <v>0</v>
+        <v>-391.346</v>
       </c>
       <c r="Y86" s="27">
         <v>0</v>
       </c>
       <c r="Z86" s="27">
-        <v>-568.96552586206894</v>
+        <v>0</v>
       </c>
       <c r="AA86" s="27">
         <v>0</v>
@@ -9584,7 +9547,7 @@
     </row>
     <row r="87" spans="1:34" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A87" s="35" t="s">
-        <v>95</v>
+        <v>102</v>
       </c>
       <c r="B87" s="36">
         <v>-7096639.0899999999</v>
@@ -9602,34 +9565,34 @@
         <v>-769975.02</v>
       </c>
       <c r="G87" s="36">
+        <v>-1607894.8800000001</v>
+      </c>
+      <c r="H87" s="36">
+        <v>-11069161.380000001</v>
+      </c>
+      <c r="I87" s="36">
         <v>-1105000</v>
       </c>
-      <c r="H87" s="36">
-        <v>-11069855.26</v>
-      </c>
-      <c r="I87" s="36">
-        <v>-1765000.01</v>
-      </c>
       <c r="J87" s="36">
-        <v>-6935000</v>
+        <v>-1105000</v>
       </c>
       <c r="K87" s="36">
-        <v>-7950000</v>
+        <v>-2554497.1363799963</v>
       </c>
       <c r="L87" s="36">
-        <v>-8540000</v>
+        <v>-4607999.3477199972</v>
       </c>
       <c r="M87" s="36">
-        <v>-8590000</v>
+        <v>-4135686.5914743971</v>
       </c>
       <c r="N87" s="36">
-        <v>-8570000</v>
+        <v>-4035501.7599438857</v>
       </c>
       <c r="O87" s="36">
-        <v>-6290000</v>
+        <v>-1685391.1217827629</v>
       </c>
       <c r="P87" s="36">
-        <v>-6290000</v>
+        <v>-1090000</v>
       </c>
       <c r="R87" s="6"/>
       <c r="S87" s="36">
@@ -9648,40 +9611,40 @@
         <v>-663.7715689655173</v>
       </c>
       <c r="X87" s="36">
-        <v>-952.58620689655174</v>
+        <v>-1362.6227796610171</v>
       </c>
       <c r="Y87" s="36">
-        <v>-9542.9786724137921</v>
+        <v>-9380.6452372881358</v>
       </c>
       <c r="Z87" s="36">
-        <v>-1521.5517327586208</v>
+        <v>-936.4406779661017</v>
       </c>
       <c r="AA87" s="36">
-        <v>-5978.4482758620688</v>
+        <v>-936.4406779661017</v>
       </c>
       <c r="AB87" s="36">
-        <v>-6853.4482758620688</v>
+        <v>-2164.8280816779629</v>
       </c>
       <c r="AC87" s="36">
-        <v>-7362.0689655172409</v>
+        <v>-3905.0841929830485</v>
       </c>
       <c r="AD87" s="36">
-        <v>-7405.1724137931033</v>
+        <v>-3504.8191453172858</v>
       </c>
       <c r="AE87" s="36">
-        <v>-7387.9310344827591</v>
+        <v>-3419.9167457151575</v>
       </c>
       <c r="AF87" s="36">
-        <v>-5422.4137931034484</v>
+        <v>-1428.29756083285</v>
       </c>
       <c r="AG87" s="36">
-        <v>-5422.4137931034484</v>
+        <v>-923.72881355932202</v>
       </c>
       <c r="AH87" s="6"/>
     </row>
     <row r="88" spans="1:34" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A88" s="28" t="s">
-        <v>96</v>
+        <v>103</v>
       </c>
       <c r="B88" s="27">
         <v>-43400.01</v>
@@ -9696,10 +9659,10 @@
         <v>-214700.52000000002</v>
       </c>
       <c r="F88" s="27">
-        <v>-858493.91</v>
+        <v>-59893.91</v>
       </c>
       <c r="G88" s="27">
-        <v>-800000</v>
+        <v>-795647.6</v>
       </c>
       <c r="H88" s="27">
         <v>-800000</v>
@@ -9742,43 +9705,43 @@
         <v>-181.94959322033901</v>
       </c>
       <c r="W88" s="27">
-        <v>-740.0809568965517</v>
+        <v>-51.632681034482765</v>
       </c>
       <c r="X88" s="27">
-        <v>-689.65517241379314</v>
+        <v>-674.27762711864409</v>
       </c>
       <c r="Y88" s="27">
-        <v>-689.65517241379314</v>
+        <v>-677.96610169491521</v>
       </c>
       <c r="Z88" s="27">
-        <v>-689.65517241379314</v>
+        <v>-677.96610169491521</v>
       </c>
       <c r="AA88" s="27">
-        <v>-689.65517241379314</v>
+        <v>-677.96610169491521</v>
       </c>
       <c r="AB88" s="27">
-        <v>-689.65517241379314</v>
+        <v>-677.96610169491521</v>
       </c>
       <c r="AC88" s="27">
-        <v>-689.65517241379314</v>
+        <v>-677.96610169491521</v>
       </c>
       <c r="AD88" s="27">
-        <v>-689.65517241379314</v>
+        <v>-677.96610169491521</v>
       </c>
       <c r="AE88" s="27">
-        <v>-689.65517241379314</v>
+        <v>-677.96610169491521</v>
       </c>
       <c r="AF88" s="27">
-        <v>-689.65517241379314</v>
+        <v>-677.96610169491521</v>
       </c>
       <c r="AG88" s="27">
-        <v>-689.65517241379314</v>
+        <v>-677.96610169491521</v>
       </c>
       <c r="AH88" s="6"/>
     </row>
     <row r="89" spans="1:34" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A89" s="28" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
       <c r="B89" s="27">
         <v>0</v>
@@ -9875,7 +9838,7 @@
     </row>
     <row r="90" spans="1:34" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A90" s="28" t="s">
-        <v>98</v>
+        <v>105</v>
       </c>
       <c r="B90" s="27">
         <v>-10374</v>
@@ -9890,10 +9853,10 @@
         <v>-36917.4</v>
       </c>
       <c r="F90" s="27">
-        <v>-42921.52</v>
+        <v>-43215.519999999997</v>
       </c>
       <c r="G90" s="27">
-        <v>0</v>
+        <v>-40974.959999999999</v>
       </c>
       <c r="H90" s="27">
         <v>0</v>
@@ -9936,10 +9899,10 @@
         <v>-31.28593220338983</v>
       </c>
       <c r="W90" s="27">
-        <v>-37.001310344827587</v>
+        <v>-37.254758620689657</v>
       </c>
       <c r="X90" s="27">
-        <v>0</v>
+        <v>-34.724542372881352</v>
       </c>
       <c r="Y90" s="27">
         <v>0</v>
@@ -9972,7 +9935,7 @@
     </row>
     <row r="91" spans="1:34" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A91" s="28" t="s">
-        <v>99</v>
+        <v>106</v>
       </c>
       <c r="B91" s="27">
         <v>0</v>
@@ -10069,7 +10032,7 @@
     </row>
     <row r="92" spans="1:34" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A92" s="28" t="s">
-        <v>100</v>
+        <v>107</v>
       </c>
       <c r="B92" s="27">
         <v>0</v>
@@ -10166,7 +10129,7 @@
     </row>
     <row r="93" spans="1:34" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A93" s="28" t="s">
-        <v>101</v>
+        <v>108</v>
       </c>
       <c r="B93" s="27">
         <v>0</v>
@@ -10184,7 +10147,7 @@
         <v>-123503.84</v>
       </c>
       <c r="G93" s="27">
-        <v>0</v>
+        <v>-45424.800000000003</v>
       </c>
       <c r="H93" s="27">
         <v>0</v>
@@ -10230,7 +10193,7 @@
         <v>-106.4688275862069</v>
       </c>
       <c r="X93" s="27">
-        <v>0</v>
+        <v>-38.495593220338982</v>
       </c>
       <c r="Y93" s="27">
         <v>0</v>
@@ -10263,7 +10226,7 @@
     </row>
     <row r="94" spans="1:34" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A94" s="28" t="s">
-        <v>102</v>
+        <v>109</v>
       </c>
       <c r="B94" s="27">
         <v>0</v>
@@ -10360,7 +10323,7 @@
     </row>
     <row r="95" spans="1:34" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A95" s="28" t="s">
-        <v>103</v>
+        <v>110</v>
       </c>
       <c r="B95" s="27">
         <v>0</v>
@@ -10457,7 +10420,7 @@
     </row>
     <row r="96" spans="1:34" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A96" s="28" t="s">
-        <v>104</v>
+        <v>111</v>
       </c>
       <c r="B96" s="27">
         <v>-653625.20000000007</v>
@@ -10472,10 +10435,10 @@
         <v>-703517.94000000006</v>
       </c>
       <c r="F96" s="27">
-        <v>-622913.27</v>
+        <v>-766257.24</v>
       </c>
       <c r="G96" s="27">
-        <v>0</v>
+        <v>-360280.45</v>
       </c>
       <c r="H96" s="27">
         <v>0</v>
@@ -10518,10 +10481,10 @@
         <v>-596.20164406779668</v>
       </c>
       <c r="W96" s="27">
-        <v>-536.994198275862</v>
+        <v>-660.56658620689643</v>
       </c>
       <c r="X96" s="27">
-        <v>0</v>
+        <v>-305.32241525423728</v>
       </c>
       <c r="Y96" s="27">
         <v>0</v>
@@ -10554,7 +10517,7 @@
     </row>
     <row r="97" spans="1:34" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A97" s="28" t="s">
-        <v>105</v>
+        <v>112</v>
       </c>
       <c r="B97" s="27">
         <v>0</v>
@@ -10651,7 +10614,7 @@
     </row>
     <row r="98" spans="1:34" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A98" s="28" t="s">
-        <v>106</v>
+        <v>113</v>
       </c>
       <c r="B98" s="27">
         <v>0</v>
@@ -10748,7 +10711,7 @@
     </row>
     <row r="99" spans="1:34" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A99" s="38" t="s">
-        <v>107</v>
+        <v>114</v>
       </c>
       <c r="B99" s="36">
         <v>-707399.21000000008</v>
@@ -10763,10 +10726,10 @@
         <v>-1074947.27</v>
       </c>
       <c r="F99" s="36">
-        <v>-1647832.54</v>
+        <v>-992870.51</v>
       </c>
       <c r="G99" s="36">
-        <v>-800000</v>
+        <v>-1242327.8099999998</v>
       </c>
       <c r="H99" s="36">
         <v>-800000</v>
@@ -10809,43 +10772,43 @@
         <v>-910.97226271186446</v>
       </c>
       <c r="W99" s="36">
-        <v>-1420.5452931034483</v>
+        <v>-855.92285344827587</v>
       </c>
       <c r="X99" s="36">
-        <v>-689.65517241379314</v>
+        <v>-1052.8201779661015</v>
       </c>
       <c r="Y99" s="36">
-        <v>-689.65517241379314</v>
+        <v>-677.96610169491521</v>
       </c>
       <c r="Z99" s="36">
-        <v>-689.65517241379314</v>
+        <v>-677.96610169491521</v>
       </c>
       <c r="AA99" s="36">
-        <v>-689.65517241379314</v>
+        <v>-677.96610169491521</v>
       </c>
       <c r="AB99" s="36">
-        <v>-689.65517241379314</v>
+        <v>-677.96610169491521</v>
       </c>
       <c r="AC99" s="36">
-        <v>-689.65517241379314</v>
+        <v>-677.96610169491521</v>
       </c>
       <c r="AD99" s="36">
-        <v>-689.65517241379314</v>
+        <v>-677.96610169491521</v>
       </c>
       <c r="AE99" s="36">
-        <v>-689.65517241379314</v>
+        <v>-677.96610169491521</v>
       </c>
       <c r="AF99" s="36">
-        <v>-689.65517241379314</v>
+        <v>-677.96610169491521</v>
       </c>
       <c r="AG99" s="36">
-        <v>-689.65517241379314</v>
+        <v>-677.96610169491521</v>
       </c>
       <c r="AH99" s="6"/>
     </row>
     <row r="100" spans="1:34" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A100" s="38" t="s">
-        <v>108</v>
+        <v>115</v>
       </c>
       <c r="B100" s="36">
         <v>-50276617.679999992</v>
@@ -10860,37 +10823,37 @@
         <v>-47711123.530000001</v>
       </c>
       <c r="F100" s="36">
-        <v>-59221979.564058229</v>
+        <v>-55485486.714058228</v>
       </c>
       <c r="G100" s="36">
-        <v>-69286881.420567647</v>
+        <v>-76774110.113842964</v>
       </c>
       <c r="H100" s="36">
-        <v>-61079594.603449702</v>
+        <v>-63071856.830116376</v>
       </c>
       <c r="I100" s="36">
-        <v>-52655436.349447697</v>
+        <v>-53931295.893614359</v>
       </c>
       <c r="J100" s="36">
-        <v>-58180399.949782699</v>
+        <v>-54079259.503949359</v>
       </c>
       <c r="K100" s="36">
-        <v>-56981051.229824528</v>
+        <v>-52514407.920371182</v>
       </c>
       <c r="L100" s="36">
-        <v>-58513397.015542373</v>
+        <v>-55552348.687554032</v>
       </c>
       <c r="M100" s="36">
-        <v>-73586087.259567887</v>
+        <v>-70102726.175333962</v>
       </c>
       <c r="N100" s="36">
-        <v>-59039606.691100821</v>
+        <v>-55476060.77533637</v>
       </c>
       <c r="O100" s="36">
-        <v>-56839749.691100821</v>
+        <v>-53251132.401209004</v>
       </c>
       <c r="P100" s="36">
-        <v>-55614706.691100821</v>
+        <v>-52655741.279426239</v>
       </c>
       <c r="R100" s="6"/>
       <c r="S100" s="36">
@@ -10906,43 +10869,43 @@
         <v>-40433.155533898302</v>
       </c>
       <c r="W100" s="36">
-        <v>-51053.430658670884</v>
+        <v>-47832.316132808817</v>
       </c>
       <c r="X100" s="36">
-        <v>-59730.070190144521</v>
+        <v>-65062.805181222851</v>
       </c>
       <c r="Y100" s="36">
-        <v>-52654.822934008371</v>
+        <v>-53450.726127217269</v>
       </c>
       <c r="Z100" s="36">
-        <v>-45392.617542627326</v>
+        <v>-45704.488045435901</v>
       </c>
       <c r="AA100" s="36">
-        <v>-50155.517198088535</v>
+        <v>-45829.880935550304</v>
       </c>
       <c r="AB100" s="36">
-        <v>-49121.59588777976</v>
+        <v>-44503.735525738288</v>
       </c>
       <c r="AC100" s="36">
-        <v>-50442.583634088252</v>
+        <v>-47078.261599622063</v>
       </c>
       <c r="AD100" s="36">
-        <v>-63436.282120317148</v>
+        <v>-59409.089979096578</v>
       </c>
       <c r="AE100" s="36">
-        <v>-50896.212664742088</v>
+        <v>-47013.610826556243</v>
       </c>
       <c r="AF100" s="36">
-        <v>-48999.784216466222</v>
+        <v>-45128.078306109324</v>
       </c>
       <c r="AG100" s="36">
-        <v>-47943.712664742088</v>
+        <v>-44623.509558835794</v>
       </c>
       <c r="AH100" s="6"/>
     </row>
     <row r="101" spans="1:34" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A101" s="39" t="s">
-        <v>109</v>
+        <v>116</v>
       </c>
       <c r="B101" s="27">
         <v>60370000</v>
@@ -10957,10 +10920,10 @@
         <v>67134215.599999994</v>
       </c>
       <c r="F101" s="27">
-        <v>73175506</v>
+        <v>97135506</v>
       </c>
       <c r="G101" s="27">
-        <v>0</v>
+        <v>15774502.4</v>
       </c>
       <c r="H101" s="27">
         <v>0</v>
@@ -11003,10 +10966,10 @@
         <v>56893.403050847453</v>
       </c>
       <c r="W101" s="27">
-        <v>63082.332758620687</v>
+        <v>83737.505172413803</v>
       </c>
       <c r="X101" s="27">
-        <v>0</v>
+        <v>13368.222372881357</v>
       </c>
       <c r="Y101" s="27">
         <v>0</v>
@@ -11039,7 +11002,7 @@
     </row>
     <row r="102" spans="1:34" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A102" s="39" t="s">
-        <v>110</v>
+        <v>117</v>
       </c>
       <c r="B102" s="27">
         <v>-60370000</v>
@@ -11054,10 +11017,10 @@
         <v>-69748614.840000004</v>
       </c>
       <c r="F102" s="27">
-        <v>-73086703.00999999</v>
+        <v>-97046703.00999999</v>
       </c>
       <c r="G102" s="27">
-        <v>0</v>
+        <v>-15824782.379999999</v>
       </c>
       <c r="H102" s="27">
         <v>0</v>
@@ -11100,10 +11063,10 @@
         <v>-59108.995627118646</v>
       </c>
       <c r="W102" s="27">
-        <v>-63005.778456896544</v>
+        <v>-83660.950870689645</v>
       </c>
       <c r="X102" s="27">
-        <v>0</v>
+        <v>-13410.832525423728</v>
       </c>
       <c r="Y102" s="27">
         <v>0</v>
@@ -11136,7 +11099,7 @@
     </row>
     <row r="103" spans="1:34" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A103" s="40" t="s">
-        <v>111</v>
+        <v>118</v>
       </c>
       <c r="B103" s="41">
         <v>0</v>
@@ -11154,7 +11117,7 @@
         <v>88802.990000009537</v>
       </c>
       <c r="G103" s="41">
-        <v>0</v>
+        <v>-50279.979999998584</v>
       </c>
       <c r="H103" s="41">
         <v>0</v>
@@ -11200,7 +11163,7 @@
         <v>76.554301724146171</v>
       </c>
       <c r="X103" s="42">
-        <v>0</v>
+        <v>-42.610152542371907</v>
       </c>
       <c r="Y103" s="42">
         <v>0</v>
@@ -11233,7 +11196,7 @@
     </row>
     <row r="104" spans="1:34" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A104" s="43" t="s">
-        <v>112</v>
+        <v>119</v>
       </c>
       <c r="B104" s="44">
         <v>27688182.780000016</v>
@@ -11248,37 +11211,37 @@
         <v>31704995.071146861</v>
       </c>
       <c r="F104" s="44">
-        <v>34495165.370788649</v>
+        <v>21341755.565188654</v>
       </c>
       <c r="G104" s="44">
-        <v>26924011.965287983</v>
+        <v>6328255.7556126788</v>
       </c>
       <c r="H104" s="44">
-        <v>27737230.507415276</v>
+        <v>6089700.5748963039</v>
       </c>
       <c r="I104" s="44">
-        <v>37267203.430767588</v>
+        <v>14343813.954081953</v>
       </c>
       <c r="J104" s="44">
-        <v>44033932.653184883</v>
+        <v>25211683.622332595</v>
       </c>
       <c r="K104" s="44">
-        <v>52259737.095560335</v>
+        <v>37904131.374161392</v>
       </c>
       <c r="L104" s="44">
-        <v>56115195.752217993</v>
+        <v>44720638.358807348</v>
       </c>
       <c r="M104" s="44">
-        <v>31538879.292750105</v>
+        <v>40624639.329173356</v>
       </c>
       <c r="N104" s="44">
-        <v>21852078.401749313</v>
+        <v>34501384.353937015</v>
       </c>
       <c r="O104" s="44">
-        <v>14365134.510748535</v>
+        <v>30603057.752828017</v>
       </c>
       <c r="P104" s="44">
-        <v>8103233.6197477281</v>
+        <v>27300122.273501799</v>
       </c>
       <c r="R104" s="6"/>
       <c r="S104" s="45">
@@ -11294,43 +11257,43 @@
         <v>26868.639890802428</v>
       </c>
       <c r="W104" s="45">
-        <v>29737.211526541938</v>
+        <v>18398.065142404012</v>
       </c>
       <c r="X104" s="45">
-        <v>23210.355142489643</v>
+        <v>5362.9286064514226</v>
       </c>
       <c r="Y104" s="45">
-        <v>23911.405609840753</v>
+        <v>5160.7631990646641</v>
       </c>
       <c r="Z104" s="45">
-        <v>32126.899509282397</v>
+        <v>12155.774537357585</v>
       </c>
       <c r="AA104" s="45">
-        <v>37960.286769986968</v>
+        <v>21365.833578247963</v>
       </c>
       <c r="AB104" s="45">
-        <v>45051.497496172706</v>
+        <v>32122.145232340168</v>
       </c>
       <c r="AC104" s="45">
-        <v>48375.168751912061</v>
+        <v>37898.846066785889</v>
       </c>
       <c r="AD104" s="45">
-        <v>27188.689045474224</v>
+        <v>34427.660448451999</v>
       </c>
       <c r="AE104" s="45">
-        <v>18837.998622197687</v>
+        <v>29238.461316895773</v>
       </c>
       <c r="AF104" s="45">
-        <v>12383.736647197016</v>
+        <v>25934.794705786451</v>
       </c>
       <c r="AG104" s="45">
-        <v>6985.5462239204498</v>
+        <v>23135.696841950674</v>
       </c>
       <c r="AH104" s="6"/>
     </row>
     <row r="105" spans="1:34" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A105" s="46" t="s">
-        <v>113</v>
+        <v>120</v>
       </c>
       <c r="B105" s="21">
         <v>132969.87999999523</v>
@@ -11345,37 +11308,37 @@
         <v>795413.18114686606</v>
       </c>
       <c r="F105" s="21">
-        <v>-9952208.0992113631</v>
+        <v>747328.40518864139</v>
       </c>
       <c r="G105" s="21">
-        <v>-17523361.504712008</v>
+        <v>-6866171.4043873139</v>
       </c>
       <c r="H105" s="21">
-        <v>-16710142.962584712</v>
+        <v>-7104726.5851036888</v>
       </c>
       <c r="I105" s="21">
-        <v>-7180170.0392324105</v>
+        <v>1149386.7940819487</v>
       </c>
       <c r="J105" s="21">
-        <v>-413440.81681511551</v>
+        <v>12017256.462332584</v>
       </c>
       <c r="K105" s="21">
-        <v>7812363.6255603507</v>
+        <v>24709704.214161396</v>
       </c>
       <c r="L105" s="21">
-        <v>11667822.282217994</v>
+        <v>31526211.198807351</v>
       </c>
       <c r="M105" s="21">
-        <v>-12908494.177249864</v>
+        <v>27430212.16917339</v>
       </c>
       <c r="N105" s="21">
-        <v>-22595295.068250656</v>
+        <v>21306957.193937019</v>
       </c>
       <c r="O105" s="21">
-        <v>-30082238.959251449</v>
+        <v>17408630.592828035</v>
       </c>
       <c r="P105" s="21">
-        <v>-36344139.850252241</v>
+        <v>14105695.113501802</v>
       </c>
       <c r="R105" s="6"/>
       <c r="S105" s="21">
@@ -11391,43 +11354,43 @@
         <v>674.07896707361533</v>
       </c>
       <c r="W105" s="21">
-        <v>-8579.4897406994496</v>
+        <v>644.24862516262192</v>
       </c>
       <c r="X105" s="21">
-        <v>-15106.34612475173</v>
+        <v>-5818.7893257519609</v>
       </c>
       <c r="Y105" s="21">
-        <v>-14405.295657400613</v>
+        <v>-6020.9547331387193</v>
       </c>
       <c r="Z105" s="21">
-        <v>-6189.8017579589759</v>
+        <v>974.05660515419368</v>
       </c>
       <c r="AA105" s="21">
-        <v>-356.41449725440907</v>
+        <v>10184.115646044556</v>
       </c>
       <c r="AB105" s="21">
-        <v>6734.7962289313364</v>
+        <v>20940.427300136776</v>
       </c>
       <c r="AC105" s="21">
-        <v>10058.467484670677</v>
+        <v>26717.128134582497</v>
       </c>
       <c r="AD105" s="21">
-        <v>-11128.012221767131</v>
+        <v>23245.942516248637</v>
       </c>
       <c r="AE105" s="21">
-        <v>-19478.702645043668</v>
+        <v>18056.743384692381</v>
       </c>
       <c r="AF105" s="21">
-        <v>-25932.964620044353</v>
+        <v>14753.076773583074</v>
       </c>
       <c r="AG105" s="21">
-        <v>-31331.155043320905</v>
+        <v>11953.978909747282</v>
       </c>
       <c r="AH105" s="6"/>
     </row>
     <row r="106" spans="1:34" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A106" s="46" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="B106" s="21">
         <v>0</v>
@@ -11524,7 +11487,7 @@
     </row>
     <row r="107" spans="1:34" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A107" s="46" t="s">
-        <v>114</v>
+        <v>122</v>
       </c>
       <c r="B107" s="21">
         <v>0</v>
@@ -11621,7 +11584,7 @@
     </row>
     <row r="108" spans="1:34" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A108" s="46" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="B108" s="21">
         <v>27547512.899999999</v>
@@ -11636,37 +11599,37 @@
         <v>30901881.889999993</v>
       </c>
       <c r="F108" s="21">
-        <v>44439673.469999999</v>
+        <v>20586727.16</v>
       </c>
       <c r="G108" s="21">
-        <v>44439673.469999999</v>
+        <v>13186727.16</v>
       </c>
       <c r="H108" s="21">
-        <v>44439673.469999999</v>
+        <v>13186727.16</v>
       </c>
       <c r="I108" s="21">
-        <v>44439673.469999999</v>
+        <v>13186727.16</v>
       </c>
       <c r="J108" s="21">
-        <v>44439673.469999999</v>
+        <v>13186727.16</v>
       </c>
       <c r="K108" s="21">
-        <v>44439673.469999999</v>
+        <v>13186727.16</v>
       </c>
       <c r="L108" s="21">
-        <v>44439673.469999999</v>
+        <v>13186727.16</v>
       </c>
       <c r="M108" s="21">
-        <v>44439673.469999999</v>
+        <v>13186727.16</v>
       </c>
       <c r="N108" s="21">
-        <v>44439673.469999999</v>
+        <v>13186727.16</v>
       </c>
       <c r="O108" s="21">
-        <v>44439673.469999999</v>
+        <v>13186727.16</v>
       </c>
       <c r="P108" s="21">
-        <v>44439673.469999999</v>
+        <v>13186727.16</v>
       </c>
       <c r="R108" s="6"/>
       <c r="S108" s="21">
@@ -11682,43 +11645,43 @@
         <v>26188.035499999994</v>
       </c>
       <c r="W108" s="21">
-        <v>38310.063336206898</v>
+        <v>17747.178586206897</v>
       </c>
       <c r="X108" s="21">
-        <v>38310.063336206898</v>
+        <v>11175.192508474576</v>
       </c>
       <c r="Y108" s="21">
-        <v>38310.063336206898</v>
+        <v>11175.192508474576</v>
       </c>
       <c r="Z108" s="21">
-        <v>38310.063336206898</v>
+        <v>11175.192508474576</v>
       </c>
       <c r="AA108" s="21">
-        <v>38310.063336206898</v>
+        <v>11175.192508474576</v>
       </c>
       <c r="AB108" s="21">
-        <v>38310.063336206898</v>
+        <v>11175.192508474576</v>
       </c>
       <c r="AC108" s="21">
-        <v>38310.063336206898</v>
+        <v>11175.192508474576</v>
       </c>
       <c r="AD108" s="21">
-        <v>38310.063336206898</v>
+        <v>11175.192508474576</v>
       </c>
       <c r="AE108" s="21">
-        <v>38310.063336206898</v>
+        <v>11175.192508474576</v>
       </c>
       <c r="AF108" s="21">
-        <v>38310.063336206898</v>
+        <v>11175.192508474576</v>
       </c>
       <c r="AG108" s="21">
-        <v>38310.063336206898</v>
+        <v>11175.192508474576</v>
       </c>
       <c r="AH108" s="6"/>
     </row>
     <row r="109" spans="1:34" ht="15.75" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A109" s="47" t="s">
-        <v>115</v>
+        <v>124</v>
       </c>
       <c r="B109" s="48">
         <v>7700</v>
@@ -11782,34 +11745,34 @@
         <v>6.6379310344827589</v>
       </c>
       <c r="X109" s="48">
-        <v>6.6379310344827589</v>
+        <v>6.5254237288135597</v>
       </c>
       <c r="Y109" s="48">
-        <v>6.6379310344827589</v>
+        <v>6.5254237288135597</v>
       </c>
       <c r="Z109" s="48">
-        <v>6.6379310344827589</v>
+        <v>6.5254237288135597</v>
       </c>
       <c r="AA109" s="48">
-        <v>6.6379310344827589</v>
+        <v>6.5254237288135597</v>
       </c>
       <c r="AB109" s="48">
-        <v>6.6379310344827589</v>
+        <v>6.5254237288135597</v>
       </c>
       <c r="AC109" s="48">
-        <v>6.6379310344827589</v>
+        <v>6.5254237288135597</v>
       </c>
       <c r="AD109" s="48">
-        <v>6.6379310344827589</v>
+        <v>6.5254237288135597</v>
       </c>
       <c r="AE109" s="48">
-        <v>6.6379310344827589</v>
+        <v>6.5254237288135597</v>
       </c>
       <c r="AF109" s="48">
-        <v>6.6379310344827589</v>
+        <v>6.5254237288135597</v>
       </c>
       <c r="AG109" s="48">
-        <v>6.6379310344827589</v>
+        <v>6.5254237288135597</v>
       </c>
       <c r="AH109" s="6"/>
     </row>
@@ -11830,7 +11793,7 @@
     </row>
     <row r="112" spans="1:34" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A112" s="52" t="s">
-        <v>116</v>
+        <v>125</v>
       </c>
       <c r="B112" s="53">
         <v>17400329.219999995</v>
@@ -11845,37 +11808,37 @@
         <v>20800398.061146855</v>
       </c>
       <c r="F112" s="53">
-        <v>17498209.02518864</v>
+        <v>19289367.112257969</v>
       </c>
       <c r="G112" s="53">
-        <v>17129280.862616628</v>
+        <v>6328255.75561269</v>
       </c>
       <c r="H112" s="53">
-        <v>-71619.302884016186</v>
+        <v>-5100695.1436259914</v>
       </c>
       <c r="I112" s="53">
-        <v>10501122.765408903</v>
+        <v>5316014.9118232578</v>
       </c>
       <c r="J112" s="53">
-        <v>13846132.078426205</v>
+        <v>13422164.680673912</v>
       </c>
       <c r="K112" s="53">
-        <v>22535861.3008435</v>
+        <v>25778537.212544531</v>
       </c>
       <c r="L112" s="53">
-        <v>27118240.788016185</v>
+        <v>33364057.797830559</v>
       </c>
       <c r="M112" s="53">
-        <v>30650888.3816154</v>
+        <v>40380066.475663662</v>
       </c>
       <c r="N112" s="53">
-        <v>6094571.9221475273</v>
+        <v>19387295.931960225</v>
       </c>
       <c r="O112" s="53">
-        <v>-1312228.9688532501</v>
+        <v>15614151.594884977</v>
       </c>
       <c r="P112" s="53">
-        <v>-8799172.8598540425</v>
+        <v>12311216.115558758</v>
       </c>
       <c r="R112" s="6"/>
       <c r="S112" s="53">
@@ -11891,43 +11854,43 @@
         <v>17627.455984022759</v>
       </c>
       <c r="W112" s="53">
-        <v>15084.662952748828</v>
+        <v>16628.764751946524</v>
       </c>
       <c r="X112" s="53">
-        <v>14766.621433290196</v>
+        <v>5362.9286064514326</v>
       </c>
       <c r="Y112" s="53">
-        <v>-61.740778348289815</v>
+        <v>-4322.6230030728739</v>
       </c>
       <c r="Z112" s="53">
-        <v>9052.692039145606</v>
+        <v>4505.0973829010663</v>
       </c>
       <c r="AA112" s="53">
-        <v>11936.320757263969</v>
+        <v>11374.715831079586</v>
       </c>
       <c r="AB112" s="53">
-        <v>19427.466638658188</v>
+        <v>21846.217976732652</v>
       </c>
       <c r="AC112" s="53">
-        <v>23377.793782772573</v>
+        <v>28274.625252398779</v>
       </c>
       <c r="AD112" s="53">
-        <v>26423.179639323622</v>
+        <v>34220.395318359035</v>
       </c>
       <c r="AE112" s="53">
-        <v>5253.9413121961443</v>
+        <v>16429.911806745953</v>
       </c>
       <c r="AF112" s="53">
-        <v>-1131.2318697010778</v>
+        <v>13232.331860072014</v>
       </c>
       <c r="AG112" s="53">
-        <v>-7585.4938447017612</v>
+        <v>10433.233996236237</v>
       </c>
       <c r="AH112" s="6"/>
     </row>
     <row r="113" spans="1:34" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A113" s="54" t="s">
-        <v>117</v>
+        <v>126</v>
       </c>
       <c r="B113" s="55">
         <v>9391954.0800000131</v>
@@ -11942,37 +11905,37 @@
         <v>-6339211.0799999982</v>
       </c>
       <c r="F113" s="55">
-        <v>2797833.299641788</v>
+        <v>-10355576.505958207</v>
       </c>
       <c r="G113" s="55">
-        <v>-7571153.4055006504</v>
+        <v>-15021929.809575964</v>
       </c>
       <c r="H113" s="55">
-        <v>813218.54212728515</v>
+        <v>-238555.18071638234</v>
       </c>
       <c r="I113" s="55">
-        <v>9529972.9233523048</v>
+        <v>8254113.3791856412</v>
       </c>
       <c r="J113" s="55">
-        <v>6766729.222417295</v>
+        <v>10867869.668250643</v>
       </c>
       <c r="K113" s="55">
-        <v>8225804.4423754513</v>
+        <v>12692447.751828805</v>
       </c>
       <c r="L113" s="55">
-        <v>3855458.6566576436</v>
+        <v>6816506.9846459553</v>
       </c>
       <c r="M113" s="55">
-        <v>-24576316.459467888</v>
+        <v>-4095999.0296339914</v>
       </c>
       <c r="N113" s="55">
-        <v>-9686800.8910008222</v>
+        <v>-6123254.9752363712</v>
       </c>
       <c r="O113" s="55">
-        <v>-7486943.8910008073</v>
+        <v>-3898326.6011089981</v>
       </c>
       <c r="P113" s="55">
-        <v>-6261900.8910008222</v>
+        <v>-3302935.4793262333</v>
       </c>
       <c r="R113" s="6"/>
       <c r="S113" s="55">
@@ -11988,37 +11951,37 @@
         <v>-5372.2127796610112</v>
       </c>
       <c r="W113" s="55">
-        <v>2411.9252583118869</v>
+        <v>-8927.2211258260395</v>
       </c>
       <c r="X113" s="55">
-        <v>-6526.8563840522838</v>
+        <v>-12730.448991166071</v>
       </c>
       <c r="Y113" s="55">
-        <v>701.05046735110227</v>
+        <v>-202.16540738676485</v>
       </c>
       <c r="Z113" s="55">
-        <v>8215.493899441637</v>
+        <v>6995.0113382929139</v>
       </c>
       <c r="AA113" s="55">
-        <v>5833.3872607045705</v>
+        <v>9210.0590408903772</v>
       </c>
       <c r="AB113" s="55">
-        <v>7091.2107261857382</v>
+        <v>10756.311654092213</v>
       </c>
       <c r="AC113" s="55">
-        <v>3323.6712557393403</v>
+        <v>5776.7008344457208</v>
       </c>
       <c r="AD113" s="55">
-        <v>-21186.479706437836</v>
+        <v>-3471.1856183338896</v>
       </c>
       <c r="AE113" s="55">
-        <v>-8350.6904232765664</v>
+        <v>-5189.1991315562555</v>
       </c>
       <c r="AF113" s="55">
-        <v>-6454.2619750006997</v>
+        <v>-3303.6666111093218</v>
       </c>
       <c r="AG113" s="55">
-        <v>-5398.190423276581</v>
+        <v>-2799.0978638357919</v>
       </c>
       <c r="AH113" s="6"/>
     </row>
@@ -12127,175 +12090,42 @@
     <row r="126" spans="1:34" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="127" spans="1:34" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="128" spans="1:34" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="129" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="130" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="131" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="132" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="133" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="134" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="135" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="136" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="137" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A137" s="56" t="s">
-        <v>127</v>
-      </c>
-      <c r="B137" s="57">
-        <v>0</v>
-      </c>
-      <c r="C137" s="57">
-        <v>0</v>
-      </c>
-      <c r="D137" s="57">
-        <v>0</v>
-      </c>
-      <c r="E137" s="57">
-        <v>0</v>
-      </c>
-      <c r="F137" s="57">
-        <v>0</v>
-      </c>
-      <c r="G137" s="57">
-        <v>0</v>
-      </c>
-      <c r="H137" s="57">
-        <v>0</v>
-      </c>
-      <c r="I137" s="57">
-        <v>0</v>
-      </c>
-      <c r="J137" s="57">
-        <v>0</v>
-      </c>
-      <c r="K137" s="57">
-        <v>0</v>
-      </c>
-      <c r="L137" s="57">
-        <v>0</v>
-      </c>
-      <c r="M137" s="57">
-        <v>0</v>
-      </c>
-      <c r="N137" s="57">
-        <v>0</v>
-      </c>
-      <c r="O137" s="57">
-        <v>0</v>
-      </c>
-      <c r="P137" s="57">
-        <v>0</v>
-      </c>
+    <row r="129" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="130" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="131" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="132" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="133" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="134" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="135" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="136" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="137" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="138" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="139" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C139" s="51"/>
     </row>
-    <row r="138" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="139" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A139" s="58" t="s">
-        <v>128</v>
-      </c>
-      <c r="B139" s="59">
-        <v>0</v>
-      </c>
-      <c r="C139" s="59">
-        <v>0</v>
-      </c>
-      <c r="D139" s="59">
-        <v>0</v>
-      </c>
-      <c r="E139" s="59">
-        <v>0</v>
-      </c>
-      <c r="F139" s="59">
-        <v>0</v>
-      </c>
-      <c r="G139" s="59">
-        <v>0</v>
-      </c>
-      <c r="H139" s="59">
-        <v>0</v>
-      </c>
-      <c r="I139" s="59">
-        <v>0</v>
-      </c>
-      <c r="J139" s="59">
-        <v>0</v>
-      </c>
-      <c r="K139" s="59">
-        <v>0</v>
-      </c>
-      <c r="L139" s="59">
-        <v>0</v>
-      </c>
-      <c r="M139" s="59">
-        <v>0</v>
-      </c>
+    <row r="140" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="141" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C141" s="56"/>
     </row>
-    <row r="140" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A140" s="58" t="s">
-        <v>129</v>
-      </c>
-      <c r="B140" s="59" t="e">
-        <v>#REF!</v>
-      </c>
-      <c r="C140" s="59" t="e">
-        <v>#REF!</v>
-      </c>
-      <c r="D140" s="59" t="e">
-        <v>#REF!</v>
-      </c>
-      <c r="E140" s="59" t="e">
-        <v>#REF!</v>
-      </c>
-      <c r="F140" s="59" t="e">
-        <v>#REF!</v>
-      </c>
-      <c r="G140" s="59" t="e">
-        <v>#REF!</v>
-      </c>
-      <c r="H140" s="59" t="e">
-        <v>#REF!</v>
-      </c>
-      <c r="I140" s="59" t="e">
-        <v>#REF!</v>
-      </c>
-      <c r="J140" s="59" t="e">
-        <v>#REF!</v>
-      </c>
-      <c r="K140" s="59" t="e">
-        <v>#REF!</v>
-      </c>
-      <c r="L140" s="59" t="e">
-        <v>#REF!</v>
-      </c>
-      <c r="M140" s="59" t="e">
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="141" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A141" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="142" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="143" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="144" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C144" s="51"/>
-    </row>
-    <row r="145" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="146" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C146" s="60"/>
-    </row>
-    <row r="147" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="148" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="149" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="150" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="151" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="152" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="153" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="154" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="155" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="156" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="157" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="158" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="159" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="160" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="142" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="143" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="144" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="145" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="146" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="147" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="148" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="149" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="150" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="151" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="152" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="153" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="154" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="155" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="156" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="157" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="158" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="159" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="160" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="161" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="162" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="163" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -13136,17 +12966,32 @@
     <row r="998" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="999" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="1000" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="1001" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="1002" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="1003" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="1004" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="1005" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <TaxCatchAll xmlns="8dea5087-61c8-49a6-b989-15790544f815" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="cb16f09b-5d03-4215-91cf-1373caab063d">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101009790AAA99E75DF47BD93FD02A76D17FF" ma:contentTypeVersion="13" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="5b87cc822c8ca401683590abe9e0de7d">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="cb16f09b-5d03-4215-91cf-1373caab063d" xmlns:ns3="8dea5087-61c8-49a6-b989-15790544f815" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="b761bfef7b54b347be74b60f0d42d3d4" ns2:_="" ns3:_="">
     <xsd:import namespace="cb16f09b-5d03-4215-91cf-1373caab063d"/>
@@ -13353,27 +13198,26 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7E2B4D6B-5D58-429D-B482-FB46467F5D68}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <TaxCatchAll xmlns="8dea5087-61c8-49a6-b989-15790544f815" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="cb16f09b-5d03-4215-91cf-1373caab063d">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-  </documentManagement>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{28F89F9B-8E1B-4D2E-B1AC-87BA88D17771}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="8dea5087-61c8-49a6-b989-15790544f815"/>
+    <ds:schemaRef ds:uri="cb16f09b-5d03-4215-91cf-1373caab063d"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5C73AC08-FBDA-4D1A-BA69-4199F4DF29CD}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -13390,23 +13234,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7E2B4D6B-5D58-429D-B482-FB46467F5D68}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{28F89F9B-8E1B-4D2E-B1AC-87BA88D17771}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="8dea5087-61c8-49a6-b989-15790544f815"/>
-    <ds:schemaRef ds:uri="cb16f09b-5d03-4215-91cf-1373caab063d"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>